--- a/models/powerstation_coal/sysconfig_pscoal_identical_comps.xlsx
+++ b/models/powerstation_coal/sysconfig_pscoal_identical_comps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28695" windowHeight="16845" tabRatio="804"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28695" windowHeight="16845" tabRatio="804" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="table_description" sheetId="11" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="267">
   <si>
     <t>pwr_house</t>
   </si>
@@ -606,9 +606,6 @@
     <t>component_id</t>
   </si>
   <si>
-    <t>damage_median</t>
-  </si>
-  <si>
     <t>Capacity at the output nodes on the extremity of the component network</t>
   </si>
   <si>
@@ -826,6 +823,12 @@
   </si>
   <si>
     <t>damage_state_def</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>beta</t>
   </si>
 </sst>
 </file>
@@ -2845,7 +2848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -2853,51 +2856,51 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" t="s">
         <v>253</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>254</v>
-      </c>
-      <c r="C1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" t="s">
         <v>256</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>257</v>
-      </c>
-      <c r="C2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" t="s">
         <v>259</v>
-      </c>
-      <c r="B3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -2908,21 +2911,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B6" t="s">
         <v>155</v>
       </c>
       <c r="C6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -5278,22 +5281,22 @@
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="72" t="s">
-        <v>210</v>
-      </c>
       <c r="C2" s="59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D2" s="73">
         <v>0</v>
       </c>
       <c r="E2" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F2" s="72" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G2" s="75">
         <v>1</v>
@@ -5301,13 +5304,13 @@
     </row>
     <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D3" s="73">
         <v>2.5954017126034994E-2</v>
@@ -5316,7 +5319,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="72" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G3" s="75">
         <v>1</v>
@@ -5324,13 +5327,13 @@
     </row>
     <row r="4" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D4" s="73">
         <v>2.5954017126034994E-2</v>
@@ -5339,7 +5342,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="72" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G4" s="75">
         <v>1</v>
@@ -5350,10 +5353,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D5" s="106">
         <v>0.01</v>
@@ -5362,7 +5365,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="72" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G5" s="75">
         <v>1</v>
@@ -5373,7 +5376,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C6" s="59" t="s">
         <v>45</v>
@@ -5396,7 +5399,7 @@
         <v>55</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C7" s="59" t="s">
         <v>45</v>
@@ -5419,7 +5422,7 @@
         <v>56</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C8" s="59" t="s">
         <v>45</v>
@@ -5442,7 +5445,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C9" s="59" t="s">
         <v>46</v>
@@ -5465,7 +5468,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C10" s="59" t="s">
         <v>46</v>
@@ -5488,7 +5491,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C11" s="59" t="s">
         <v>46</v>
@@ -5511,7 +5514,7 @@
         <v>32</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C12" s="59" t="s">
         <v>46</v>
@@ -5534,7 +5537,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C13" s="59" t="s">
         <v>47</v>
@@ -5557,7 +5560,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C14" s="59" t="s">
         <v>47</v>
@@ -5577,10 +5580,10 @@
     </row>
     <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="59" t="s">
         <v>44</v>
@@ -5589,7 +5592,7 @@
         <v>2.3189810486043766E-2</v>
       </c>
       <c r="E15" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F15" s="59" t="s">
         <v>44</v>
@@ -5603,7 +5606,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C16" s="59" t="s">
         <v>44</v>
@@ -5626,7 +5629,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C17" s="59" t="s">
         <v>44</v>
@@ -5649,7 +5652,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C18" s="59" t="s">
         <v>44</v>
@@ -5672,7 +5675,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C19" s="59" t="s">
         <v>48</v>
@@ -5695,7 +5698,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C20" s="59" t="s">
         <v>48</v>
@@ -5718,7 +5721,7 @@
         <v>40</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C21" s="59" t="s">
         <v>48</v>
@@ -5741,7 +5744,7 @@
         <v>41</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C22" s="59" t="s">
         <v>48</v>
@@ -5764,10 +5767,10 @@
         <v>33</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D23" s="73">
         <v>4.9999999999999992E-3</v>
@@ -5776,7 +5779,7 @@
         <v>52</v>
       </c>
       <c r="F23" s="59" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G23" s="75">
         <v>1</v>
@@ -5787,10 +5790,10 @@
         <v>5</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D24" s="73">
         <v>6.6793425473104144E-3</v>
@@ -5799,7 +5802,7 @@
         <v>16</v>
       </c>
       <c r="F24" s="59" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G24" s="75">
         <v>1</v>
@@ -5810,10 +5813,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C25" s="59" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D25" s="73">
         <v>6.6793425473104144E-3</v>
@@ -5822,7 +5825,7 @@
         <v>16</v>
       </c>
       <c r="F25" s="59" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G25" s="75">
         <v>1</v>
@@ -5833,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C26" s="59" t="s">
         <v>51</v>
@@ -5845,7 +5848,7 @@
         <v>52</v>
       </c>
       <c r="F26" s="59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G26" s="75">
         <v>1</v>
@@ -5856,7 +5859,7 @@
         <v>57</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C27" s="59" t="s">
         <v>42</v>
@@ -5879,7 +5882,7 @@
         <v>58</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C28" s="59" t="s">
         <v>42</v>
@@ -5902,7 +5905,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C29" s="59" t="s">
         <v>51</v>
@@ -5925,7 +5928,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C30" s="59" t="s">
         <v>51</v>
@@ -5997,7 +6000,7 @@
         <v>28</v>
       </c>
       <c r="C33" s="59" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D33" s="73">
         <v>0</v>
@@ -6006,7 +6009,7 @@
         <v>18</v>
       </c>
       <c r="F33" s="59" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G33" s="75">
         <v>1</v>
@@ -6020,7 +6023,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D34" s="73">
         <v>0</v>
@@ -6029,7 +6032,7 @@
         <v>18</v>
       </c>
       <c r="F34" s="59" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G34" s="75">
         <v>1</v>
@@ -6086,24 +6089,24 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="C1" s="79" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" s="79" t="s">
         <v>240</v>
-      </c>
-      <c r="C1" s="79" t="s">
-        <v>249</v>
-      </c>
-      <c r="D1" s="79" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C2" s="80">
         <v>1</v>
@@ -6114,10 +6117,10 @@
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" s="80">
         <v>1</v>
@@ -6128,7 +6131,7 @@
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4" s="59" t="s">
         <v>10</v>
@@ -6142,7 +6145,7 @@
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5" s="59" t="s">
         <v>10</v>
@@ -6394,7 +6397,7 @@
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="59" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B23" s="59" t="s">
         <v>11</v>
@@ -6714,21 +6717,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="61" t="s">
-        <v>244</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>243</v>
-      </c>
       <c r="D1" s="61" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2" s="62">
         <v>100</v>
@@ -6737,12 +6740,12 @@
         <v>1</v>
       </c>
       <c r="D2" s="64" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B3" s="62">
         <v>100</v>
@@ -6751,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6801,19 +6804,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="60" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="C1" s="61" t="s">
         <v>246</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="D1" s="61" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" s="61" t="s">
         <v>247</v>
-      </c>
-      <c r="D1" s="61" t="s">
-        <v>243</v>
-      </c>
-      <c r="E1" s="61" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6864,11 +6867,11 @@
   </sheetPr>
   <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:XFD3"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6895,16 +6898,16 @@
         <v>19</v>
       </c>
       <c r="C1" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="81" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="81" t="s">
-        <v>200</v>
-      </c>
       <c r="E1" s="89" t="s">
-        <v>192</v>
+        <v>265</v>
       </c>
       <c r="F1" s="89" t="s">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="G1" s="89" t="s">
         <v>21</v>
@@ -6913,13 +6916,13 @@
         <v>22</v>
       </c>
       <c r="I1" s="87" t="s">
+        <v>202</v>
+      </c>
+      <c r="J1" s="87" t="s">
         <v>203</v>
       </c>
-      <c r="J1" s="87" t="s">
+      <c r="K1" s="87" t="s">
         <v>204</v>
-      </c>
-      <c r="K1" s="87" t="s">
-        <v>205</v>
       </c>
       <c r="L1" s="88" t="s">
         <v>23</v>
@@ -6928,7 +6931,7 @@
         <v>24</v>
       </c>
       <c r="N1" s="88" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O1" s="108" t="s">
         <v>189</v>
@@ -6936,13 +6939,13 @@
     </row>
     <row r="2" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D2" s="83">
         <v>1</v>
@@ -6960,13 +6963,13 @@
         <v>1</v>
       </c>
       <c r="I2" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J2" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K2" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L2" s="7">
         <v>5</v>
@@ -6984,13 +6987,13 @@
     </row>
     <row r="3" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D3" s="82">
         <v>1</v>
@@ -7008,13 +7011,13 @@
         <v>0</v>
       </c>
       <c r="I3" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J3" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K3" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L3" s="9">
         <v>10</v>
@@ -7032,13 +7035,13 @@
     </row>
     <row r="4" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D4" s="82">
         <v>1</v>
@@ -7056,13 +7059,13 @@
         <v>0</v>
       </c>
       <c r="I4" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J4" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K4" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L4" s="9">
         <v>21</v>
@@ -7080,13 +7083,13 @@
     </row>
     <row r="5" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D5" s="82">
         <v>1</v>
@@ -7104,13 +7107,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J5" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K5" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L5" s="52">
         <f>10*30/7</f>
@@ -7129,13 +7132,13 @@
     </row>
     <row r="6" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D6" s="83">
         <v>1</v>
@@ -7153,13 +7156,13 @@
         <v>1</v>
       </c>
       <c r="I6" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J6" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K6" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L6" s="7">
         <v>5</v>
@@ -7175,13 +7178,13 @@
     </row>
     <row r="7" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D7" s="82">
         <v>1</v>
@@ -7199,13 +7202,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J7" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K7" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L7" s="9">
         <v>10</v>
@@ -7221,13 +7224,13 @@
     </row>
     <row r="8" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D8" s="82">
         <v>1</v>
@@ -7245,13 +7248,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J8" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K8" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L8" s="9">
         <v>21</v>
@@ -7267,13 +7270,13 @@
     </row>
     <row r="9" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D9" s="82">
         <v>1</v>
@@ -7291,13 +7294,13 @@
         <v>0</v>
       </c>
       <c r="I9" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J9" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K9" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L9" s="52">
         <f>10*30/7</f>
@@ -7314,13 +7317,13 @@
     </row>
     <row r="10" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D10" s="83">
         <v>1</v>
@@ -7338,13 +7341,13 @@
         <v>1</v>
       </c>
       <c r="I10" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J10" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K10" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7">
         <v>5</v>
@@ -7360,13 +7363,13 @@
     </row>
     <row r="11" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D11" s="82">
         <v>1</v>
@@ -7384,13 +7387,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J11" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K11" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L11" s="9">
         <v>10</v>
@@ -7406,13 +7409,13 @@
     </row>
     <row r="12" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D12" s="82">
         <v>1</v>
@@ -7430,13 +7433,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J12" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K12" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L12" s="9">
         <v>21</v>
@@ -7452,13 +7455,13 @@
     </row>
     <row r="13" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D13" s="82">
         <v>1</v>
@@ -7476,13 +7479,13 @@
         <v>0</v>
       </c>
       <c r="I13" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J13" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K13" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L13" s="52">
         <f>10*30/7</f>
@@ -7499,13 +7502,13 @@
     </row>
     <row r="14" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D14" s="83">
         <v>1</v>
@@ -7523,13 +7526,13 @@
         <v>1</v>
       </c>
       <c r="I14" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J14" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K14" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L14" s="7">
         <v>5</v>
@@ -7545,13 +7548,13 @@
     </row>
     <row r="15" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D15" s="82">
         <v>1</v>
@@ -7569,13 +7572,13 @@
         <v>0</v>
       </c>
       <c r="I15" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J15" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K15" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L15" s="9">
         <v>10</v>
@@ -7591,13 +7594,13 @@
     </row>
     <row r="16" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D16" s="82">
         <v>1</v>
@@ -7615,13 +7618,13 @@
         <v>0</v>
       </c>
       <c r="I16" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J16" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K16" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L16" s="9">
         <v>21</v>
@@ -7637,13 +7640,13 @@
     </row>
     <row r="17" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D17" s="82">
         <v>1</v>
@@ -7661,13 +7664,13 @@
         <v>0</v>
       </c>
       <c r="I17" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J17" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K17" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L17" s="52">
         <f>10*30/7</f>
@@ -7684,13 +7687,13 @@
     </row>
     <row r="18" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D18" s="83">
         <v>1</v>
@@ -7708,13 +7711,13 @@
         <v>1</v>
       </c>
       <c r="I18" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J18" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K18" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L18" s="7">
         <v>5</v>
@@ -7730,13 +7733,13 @@
     </row>
     <row r="19" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D19" s="82">
         <v>1</v>
@@ -7754,13 +7757,13 @@
         <v>0</v>
       </c>
       <c r="I19" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J19" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K19" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L19" s="9">
         <v>10</v>
@@ -7776,13 +7779,13 @@
     </row>
     <row r="20" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D20" s="82">
         <v>1</v>
@@ -7800,13 +7803,13 @@
         <v>0</v>
       </c>
       <c r="I20" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J20" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K20" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L20" s="9">
         <v>21</v>
@@ -7822,13 +7825,13 @@
     </row>
     <row r="21" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D21" s="82">
         <v>1</v>
@@ -7846,13 +7849,13 @@
         <v>0</v>
       </c>
       <c r="I21" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J21" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K21" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L21" s="52">
         <f>10*30/7</f>
@@ -7869,13 +7872,13 @@
     </row>
     <row r="22" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D22" s="83">
         <v>1</v>
@@ -7893,13 +7896,13 @@
         <v>1</v>
       </c>
       <c r="I22" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J22" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K22" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L22" s="7">
         <v>5</v>
@@ -7915,13 +7918,13 @@
     </row>
     <row r="23" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D23" s="82">
         <v>1</v>
@@ -7939,13 +7942,13 @@
         <v>0</v>
       </c>
       <c r="I23" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J23" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K23" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L23" s="9">
         <v>10</v>
@@ -7961,13 +7964,13 @@
     </row>
     <row r="24" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D24" s="82">
         <v>1</v>
@@ -7985,13 +7988,13 @@
         <v>0</v>
       </c>
       <c r="I24" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J24" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K24" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L24" s="9">
         <v>21</v>
@@ -8007,13 +8010,13 @@
     </row>
     <row r="25" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D25" s="82">
         <v>1</v>
@@ -8031,13 +8034,13 @@
         <v>0</v>
       </c>
       <c r="I25" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J25" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K25" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L25" s="52">
         <f>10*30/7</f>
@@ -8054,13 +8057,13 @@
     </row>
     <row r="26" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D26" s="83">
         <v>1</v>
@@ -8078,13 +8081,13 @@
         <v>1</v>
       </c>
       <c r="I26" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J26" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K26" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L26" s="7">
         <v>5</v>
@@ -8100,13 +8103,13 @@
     </row>
     <row r="27" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D27" s="82">
         <v>1</v>
@@ -8124,13 +8127,13 @@
         <v>0</v>
       </c>
       <c r="I27" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J27" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K27" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L27" s="9">
         <v>10</v>
@@ -8146,13 +8149,13 @@
     </row>
     <row r="28" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D28" s="82">
         <v>1</v>
@@ -8170,13 +8173,13 @@
         <v>0</v>
       </c>
       <c r="I28" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J28" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K28" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L28" s="9">
         <v>21</v>
@@ -8192,13 +8195,13 @@
     </row>
     <row r="29" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D29" s="82">
         <v>1</v>
@@ -8216,13 +8219,13 @@
         <v>0</v>
       </c>
       <c r="I29" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J29" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K29" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L29" s="52">
         <f>10*30/7</f>
@@ -8239,13 +8242,13 @@
     </row>
     <row r="30" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D30" s="83">
         <v>1</v>
@@ -8263,13 +8266,13 @@
         <v>1</v>
       </c>
       <c r="I30" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J30" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K30" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L30" s="7">
         <v>5</v>
@@ -8285,13 +8288,13 @@
     </row>
     <row r="31" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D31" s="82">
         <v>1</v>
@@ -8309,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="I31" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J31" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K31" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L31" s="9">
         <v>10</v>
@@ -8331,13 +8334,13 @@
     </row>
     <row r="32" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D32" s="82">
         <v>1</v>
@@ -8355,13 +8358,13 @@
         <v>0</v>
       </c>
       <c r="I32" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J32" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K32" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L32" s="9">
         <v>21</v>
@@ -8377,13 +8380,13 @@
     </row>
     <row r="33" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D33" s="82">
         <v>1</v>
@@ -8401,13 +8404,13 @@
         <v>0</v>
       </c>
       <c r="I33" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J33" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K33" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L33" s="52">
         <f>10*30/7</f>
@@ -8424,13 +8427,13 @@
     </row>
     <row r="34" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D34" s="83">
         <v>1</v>
@@ -8448,13 +8451,13 @@
         <v>1</v>
       </c>
       <c r="I34" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J34" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K34" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L34" s="7">
         <v>5</v>
@@ -8470,13 +8473,13 @@
     </row>
     <row r="35" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D35" s="82">
         <v>1</v>
@@ -8494,13 +8497,13 @@
         <v>0</v>
       </c>
       <c r="I35" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J35" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K35" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L35" s="9">
         <v>10</v>
@@ -8516,13 +8519,13 @@
     </row>
     <row r="36" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D36" s="82">
         <v>1</v>
@@ -8540,13 +8543,13 @@
         <v>0</v>
       </c>
       <c r="I36" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J36" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K36" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L36" s="9">
         <v>21</v>
@@ -8562,13 +8565,13 @@
     </row>
     <row r="37" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D37" s="82">
         <v>1</v>
@@ -8586,13 +8589,13 @@
         <v>0</v>
       </c>
       <c r="I37" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J37" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K37" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L37" s="52">
         <f>10*30/7</f>
@@ -8609,13 +8612,13 @@
     </row>
     <row r="38" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D38" s="83">
         <v>1</v>
@@ -8633,13 +8636,13 @@
         <v>1</v>
       </c>
       <c r="I38" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J38" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K38" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L38" s="7">
         <v>5</v>
@@ -8655,13 +8658,13 @@
     </row>
     <row r="39" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D39" s="82">
         <v>1</v>
@@ -8679,13 +8682,13 @@
         <v>0</v>
       </c>
       <c r="I39" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J39" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K39" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L39" s="9">
         <v>10</v>
@@ -8701,13 +8704,13 @@
     </row>
     <row r="40" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D40" s="82">
         <v>1</v>
@@ -8725,13 +8728,13 @@
         <v>0</v>
       </c>
       <c r="I40" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J40" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K40" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L40" s="9">
         <v>21</v>
@@ -8747,13 +8750,13 @@
     </row>
     <row r="41" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>62</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D41" s="84">
         <v>1</v>
@@ -8771,13 +8774,13 @@
         <v>0</v>
       </c>
       <c r="I41" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J41" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K41" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L41" s="52">
         <f>10*30/7</f>
@@ -8794,13 +8797,13 @@
     </row>
     <row r="42" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D42" s="83">
         <v>1</v>
@@ -8818,13 +8821,13 @@
         <v>1</v>
       </c>
       <c r="I42" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J42" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K42" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L42" s="7">
         <v>5</v>
@@ -8840,13 +8843,13 @@
     </row>
     <row r="43" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D43" s="82">
         <v>1</v>
@@ -8864,13 +8867,13 @@
         <v>0</v>
       </c>
       <c r="I43" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J43" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K43" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L43" s="9">
         <v>10</v>
@@ -8886,13 +8889,13 @@
     </row>
     <row r="44" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D44" s="82">
         <v>1</v>
@@ -8910,13 +8913,13 @@
         <v>0</v>
       </c>
       <c r="I44" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J44" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K44" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L44" s="9">
         <v>21</v>
@@ -8932,13 +8935,13 @@
     </row>
     <row r="45" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D45" s="82">
         <v>1</v>
@@ -8956,13 +8959,13 @@
         <v>0</v>
       </c>
       <c r="I45" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J45" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K45" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L45" s="52">
         <f>10*30/7</f>
@@ -8979,13 +8982,13 @@
     </row>
     <row r="46" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D46" s="83">
         <v>1</v>
@@ -9003,13 +9006,13 @@
         <v>1</v>
       </c>
       <c r="I46" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J46" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K46" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L46" s="7">
         <v>5</v>
@@ -9025,13 +9028,13 @@
     </row>
     <row r="47" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D47" s="82">
         <v>1</v>
@@ -9049,13 +9052,13 @@
         <v>0</v>
       </c>
       <c r="I47" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J47" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K47" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L47" s="9">
         <v>10</v>
@@ -9071,13 +9074,13 @@
     </row>
     <row r="48" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D48" s="82">
         <v>1</v>
@@ -9095,13 +9098,13 @@
         <v>0</v>
       </c>
       <c r="I48" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J48" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K48" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L48" s="9">
         <v>21</v>
@@ -9117,13 +9120,13 @@
     </row>
     <row r="49" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D49" s="82">
         <v>1</v>
@@ -9141,13 +9144,13 @@
         <v>0</v>
       </c>
       <c r="I49" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J49" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K49" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L49" s="52">
         <f>10*30/7</f>
@@ -9170,7 +9173,7 @@
         <v>59</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D50" s="83">
         <v>1</v>
@@ -9188,13 +9191,13 @@
         <v>1</v>
       </c>
       <c r="I50" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J50" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K50" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L50" s="7">
         <v>5</v>
@@ -9216,7 +9219,7 @@
         <v>60</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D51" s="82">
         <v>1</v>
@@ -9234,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I51" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J51" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K51" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L51" s="9">
         <v>10</v>
@@ -9262,7 +9265,7 @@
         <v>61</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D52" s="82">
         <v>1</v>
@@ -9280,13 +9283,13 @@
         <v>0</v>
       </c>
       <c r="I52" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J52" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K52" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L52" s="9">
         <v>21</v>
@@ -9308,7 +9311,7 @@
         <v>62</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D53" s="82">
         <v>1</v>
@@ -9326,13 +9329,13 @@
         <v>0</v>
       </c>
       <c r="I53" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J53" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K53" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L53" s="52">
         <f>10*30/7</f>
@@ -9349,13 +9352,13 @@
     </row>
     <row r="54" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D54" s="83">
         <v>1</v>
@@ -9373,13 +9376,13 @@
         <v>1</v>
       </c>
       <c r="I54" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J54" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K54" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L54" s="7">
         <v>5</v>
@@ -9395,13 +9398,13 @@
     </row>
     <row r="55" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D55" s="82">
         <v>1</v>
@@ -9419,13 +9422,13 @@
         <v>0</v>
       </c>
       <c r="I55" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J55" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K55" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L55" s="9">
         <v>10</v>
@@ -9441,13 +9444,13 @@
     </row>
     <row r="56" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D56" s="82">
         <v>1</v>
@@ -9465,13 +9468,13 @@
         <v>0</v>
       </c>
       <c r="I56" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J56" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K56" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L56" s="9">
         <v>21</v>
@@ -9487,13 +9490,13 @@
     </row>
     <row r="57" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>62</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D57" s="84">
         <v>1</v>
@@ -9511,13 +9514,13 @@
         <v>0</v>
       </c>
       <c r="I57" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J57" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K57" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L57" s="52">
         <f>10*30/7</f>
@@ -9534,13 +9537,13 @@
     </row>
     <row r="58" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D58" s="82">
         <v>1</v>
@@ -9558,13 +9561,13 @@
         <v>1</v>
       </c>
       <c r="I58" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J58" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K58" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L58" s="7">
         <v>5</v>
@@ -9580,13 +9583,13 @@
     </row>
     <row r="59" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D59" s="82">
         <v>1</v>
@@ -9604,13 +9607,13 @@
         <v>0</v>
       </c>
       <c r="I59" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J59" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K59" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L59" s="9">
         <v>10</v>
@@ -9626,13 +9629,13 @@
     </row>
     <row r="60" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D60" s="82">
         <v>1</v>
@@ -9650,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="I60" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J60" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K60" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L60" s="9">
         <v>21</v>
@@ -9672,13 +9675,13 @@
     </row>
     <row r="61" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D61" s="82">
         <v>1</v>
@@ -9696,13 +9699,13 @@
         <v>0</v>
       </c>
       <c r="I61" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J61" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K61" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L61" s="52">
         <f>10*30/7</f>
@@ -9719,13 +9722,13 @@
     </row>
     <row r="62" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D62" s="83">
         <v>1</v>
@@ -9743,13 +9746,13 @@
         <v>1</v>
       </c>
       <c r="I62" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J62" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K62" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L62" s="7">
         <v>5</v>
@@ -9765,13 +9768,13 @@
     </row>
     <row r="63" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D63" s="82">
         <v>1</v>
@@ -9789,13 +9792,13 @@
         <v>0</v>
       </c>
       <c r="I63" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J63" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K63" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L63" s="9">
         <v>10</v>
@@ -9811,13 +9814,13 @@
     </row>
     <row r="64" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D64" s="82">
         <v>1</v>
@@ -9835,13 +9838,13 @@
         <v>0</v>
       </c>
       <c r="I64" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J64" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K64" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L64" s="9">
         <v>21</v>
@@ -9857,13 +9860,13 @@
     </row>
     <row r="65" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>62</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D65" s="84">
         <v>1</v>
@@ -9881,13 +9884,13 @@
         <v>0</v>
       </c>
       <c r="I65" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J65" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K65" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L65" s="52">
         <f>10*30/7</f>
@@ -9910,7 +9913,7 @@
         <v>59</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="83">
         <v>1</v>
@@ -9928,13 +9931,13 @@
         <v>1</v>
       </c>
       <c r="I66" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J66" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K66" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L66" s="7">
         <v>1</v>
@@ -9958,7 +9961,7 @@
         <v>60</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="82">
         <v>1</v>
@@ -9976,13 +9979,13 @@
         <v>0.6</v>
       </c>
       <c r="I67" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J67" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K67" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L67" s="9">
         <v>3</v>
@@ -10006,7 +10009,7 @@
         <v>61</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="82">
         <v>1</v>
@@ -10024,13 +10027,13 @@
         <v>0.2</v>
       </c>
       <c r="I68" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J68" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K68" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L68" s="9">
         <v>7</v>
@@ -10054,7 +10057,7 @@
         <v>62</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="82">
         <v>1</v>
@@ -10072,13 +10075,13 @@
         <v>0</v>
       </c>
       <c r="I69" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J69" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K69" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L69" s="9">
         <v>30</v>
@@ -10102,7 +10105,7 @@
         <v>59</v>
       </c>
       <c r="C70" s="90" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D70" s="91">
         <v>1</v>
@@ -10120,13 +10123,13 @@
         <v>1</v>
       </c>
       <c r="I70" s="93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J70" s="93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K70" s="93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L70" s="94">
         <v>1</v>
@@ -10148,7 +10151,7 @@
         <v>60</v>
       </c>
       <c r="C71" s="95" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D71" s="96">
         <v>1</v>
@@ -10166,13 +10169,13 @@
         <v>1</v>
       </c>
       <c r="I71" s="98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J71" s="98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K71" s="98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L71" s="99">
         <v>1</v>
@@ -10194,7 +10197,7 @@
         <v>61</v>
       </c>
       <c r="C72" s="95" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D72" s="96">
         <v>1</v>
@@ -10212,13 +10215,13 @@
         <v>1</v>
       </c>
       <c r="I72" s="98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J72" s="98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K72" s="98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L72" s="99">
         <v>1</v>
@@ -10240,7 +10243,7 @@
         <v>62</v>
       </c>
       <c r="C73" s="100" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D73" s="101">
         <v>1</v>
@@ -10258,13 +10261,13 @@
         <v>1</v>
       </c>
       <c r="I73" s="103" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J73" s="103" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K73" s="103" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L73" s="104">
         <v>1</v>
@@ -10280,13 +10283,13 @@
     </row>
     <row r="74" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="90" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B74" s="90" t="s">
         <v>59</v>
       </c>
       <c r="C74" s="90" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D74" s="91">
         <v>1</v>
@@ -10304,13 +10307,13 @@
         <v>1</v>
       </c>
       <c r="I74" s="93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J74" s="93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K74" s="93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L74" s="94">
         <v>1</v>
@@ -10326,13 +10329,13 @@
     </row>
     <row r="75" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="95" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B75" s="95" t="s">
         <v>60</v>
       </c>
       <c r="C75" s="95" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D75" s="96">
         <v>1</v>
@@ -10350,13 +10353,13 @@
         <v>1</v>
       </c>
       <c r="I75" s="98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J75" s="98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K75" s="98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L75" s="99">
         <v>1</v>
@@ -10372,13 +10375,13 @@
     </row>
     <row r="76" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="95" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B76" s="95" t="s">
         <v>61</v>
       </c>
       <c r="C76" s="95" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D76" s="96">
         <v>1</v>
@@ -10396,13 +10399,13 @@
         <v>1</v>
       </c>
       <c r="I76" s="98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J76" s="98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K76" s="98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L76" s="99">
         <v>1</v>
@@ -10418,13 +10421,13 @@
     </row>
     <row r="77" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="100" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B77" s="100" t="s">
         <v>62</v>
       </c>
       <c r="C77" s="100" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D77" s="101">
         <v>1</v>
@@ -10442,13 +10445,13 @@
         <v>1</v>
       </c>
       <c r="I77" s="103" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J77" s="103" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K77" s="103" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L77" s="104">
         <v>1</v>
@@ -10500,12 +10503,12 @@
         <v>19</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>59</v>
@@ -10516,7 +10519,7 @@
     </row>
     <row r="3" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>60</v>
@@ -10527,7 +10530,7 @@
     </row>
     <row r="4" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>61</v>
@@ -10538,7 +10541,7 @@
     </row>
     <row r="5" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>62</v>
@@ -10549,7 +10552,7 @@
     </row>
     <row r="6" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>59</v>
@@ -10560,7 +10563,7 @@
     </row>
     <row r="7" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>60</v>
@@ -10571,7 +10574,7 @@
     </row>
     <row r="8" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>61</v>
@@ -10582,7 +10585,7 @@
     </row>
     <row r="9" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>62</v>
@@ -10593,7 +10596,7 @@
     </row>
     <row r="10" spans="1:3" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>59</v>
@@ -10604,7 +10607,7 @@
     </row>
     <row r="11" spans="1:3" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>60</v>
@@ -10615,7 +10618,7 @@
     </row>
     <row r="12" spans="1:3" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>61</v>
@@ -10626,7 +10629,7 @@
     </row>
     <row r="13" spans="1:3" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>62</v>
@@ -10637,7 +10640,7 @@
     </row>
     <row r="14" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>59</v>
@@ -10648,7 +10651,7 @@
     </row>
     <row r="15" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>60</v>
@@ -10659,7 +10662,7 @@
     </row>
     <row r="16" spans="1:3" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>61</v>
@@ -10670,7 +10673,7 @@
     </row>
     <row r="17" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>62</v>
@@ -10681,7 +10684,7 @@
     </row>
     <row r="18" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>59</v>
@@ -10692,7 +10695,7 @@
     </row>
     <row r="19" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>60</v>
@@ -10703,7 +10706,7 @@
     </row>
     <row r="20" spans="1:3" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>61</v>
@@ -10714,7 +10717,7 @@
     </row>
     <row r="21" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>62</v>
@@ -10725,7 +10728,7 @@
     </row>
     <row r="22" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>59</v>
@@ -10736,7 +10739,7 @@
     </row>
     <row r="23" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>60</v>
@@ -10747,7 +10750,7 @@
     </row>
     <row r="24" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>61</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="25" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>62</v>
@@ -10769,7 +10772,7 @@
     </row>
     <row r="26" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>59</v>
@@ -10780,7 +10783,7 @@
     </row>
     <row r="27" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>60</v>
@@ -10791,7 +10794,7 @@
     </row>
     <row r="28" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>61</v>
@@ -10802,7 +10805,7 @@
     </row>
     <row r="29" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>62</v>
@@ -10813,7 +10816,7 @@
     </row>
     <row r="30" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>59</v>
@@ -10824,7 +10827,7 @@
     </row>
     <row r="31" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>60</v>
@@ -10835,7 +10838,7 @@
     </row>
     <row r="32" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>61</v>
@@ -10846,7 +10849,7 @@
     </row>
     <row r="33" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>62</v>
@@ -10857,7 +10860,7 @@
     </row>
     <row r="34" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>59</v>
@@ -10868,7 +10871,7 @@
     </row>
     <row r="35" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>60</v>
@@ -10879,7 +10882,7 @@
     </row>
     <row r="36" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>61</v>
@@ -10890,7 +10893,7 @@
     </row>
     <row r="37" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>62</v>
@@ -10901,7 +10904,7 @@
     </row>
     <row r="38" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>59</v>
@@ -10912,7 +10915,7 @@
     </row>
     <row r="39" spans="1:3" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>60</v>
@@ -10923,7 +10926,7 @@
     </row>
     <row r="40" spans="1:3" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>61</v>
@@ -10934,7 +10937,7 @@
     </row>
     <row r="41" spans="1:3" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>62</v>
@@ -10945,7 +10948,7 @@
     </row>
     <row r="42" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>59</v>
@@ -10956,7 +10959,7 @@
     </row>
     <row r="43" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>60</v>
@@ -10967,7 +10970,7 @@
     </row>
     <row r="44" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>61</v>
@@ -10978,7 +10981,7 @@
     </row>
     <row r="45" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>62</v>
@@ -10989,7 +10992,7 @@
     </row>
     <row r="46" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>59</v>
@@ -11000,7 +11003,7 @@
     </row>
     <row r="47" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>60</v>
@@ -11011,7 +11014,7 @@
     </row>
     <row r="48" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>61</v>
@@ -11022,7 +11025,7 @@
     </row>
     <row r="49" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>62</v>
@@ -11077,7 +11080,7 @@
     </row>
     <row r="54" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>59</v>
@@ -11088,7 +11091,7 @@
     </row>
     <row r="55" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>60</v>
@@ -11099,7 +11102,7 @@
     </row>
     <row r="56" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>61</v>
@@ -11110,7 +11113,7 @@
     </row>
     <row r="57" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>62</v>
@@ -11121,7 +11124,7 @@
     </row>
     <row r="58" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>59</v>
@@ -11132,7 +11135,7 @@
     </row>
     <row r="59" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>60</v>
@@ -11143,7 +11146,7 @@
     </row>
     <row r="60" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>61</v>
@@ -11154,7 +11157,7 @@
     </row>
     <row r="61" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>62</v>
@@ -11165,7 +11168,7 @@
     </row>
     <row r="62" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>59</v>
@@ -11176,7 +11179,7 @@
     </row>
     <row r="63" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>60</v>
@@ -11187,7 +11190,7 @@
     </row>
     <row r="64" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>61</v>
@@ -11198,7 +11201,7 @@
     </row>
     <row r="65" spans="1:3" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>62</v>
@@ -11215,7 +11218,7 @@
         <v>59</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -11226,7 +11229,7 @@
         <v>60</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -11237,7 +11240,7 @@
         <v>61</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -11248,7 +11251,7 @@
         <v>62</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -11259,7 +11262,7 @@
         <v>59</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -11270,7 +11273,7 @@
         <v>60</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -11281,7 +11284,7 @@
         <v>61</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -11292,51 +11295,51 @@
         <v>62</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="90" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B74" s="90" t="s">
         <v>59</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="95" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B75" s="95" t="s">
         <v>60</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="95" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B76" s="95" t="s">
         <v>61</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="77" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="100" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B77" s="100" t="s">
         <v>62</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -11565,7 +11568,7 @@
         <v>76</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -11931,7 +11934,7 @@
         <v>88</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -12304,7 +12307,7 @@
         <v>161</v>
       </c>
       <c r="J33" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -13708,7 +13711,7 @@
         <v>72</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -13740,7 +13743,7 @@
         <v>73</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -13772,7 +13775,7 @@
         <v>74</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -13805,7 +13808,7 @@
         <v>75</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -13837,7 +13840,7 @@
         <v>76</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -14209,7 +14212,7 @@
         <v>88</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -14582,7 +14585,7 @@
         <v>161</v>
       </c>
       <c r="J33" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">

--- a/models/powerstation_coal/sysconfig_pscoal_identical_comps.xlsx
+++ b/models/powerstation_coal/sysconfig_pscoal_identical_comps.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="271">
   <si>
     <t>pwr_house</t>
   </si>
@@ -627,9 +627,6 @@
     <t>damage_function</t>
   </si>
   <si>
-    <t>mode</t>
-  </si>
-  <si>
     <t>Coal Delivery and Storage</t>
   </si>
   <si>
@@ -639,12 +636,6 @@
     <t>minimum</t>
   </si>
   <si>
-    <t>sigma_1</t>
-  </si>
-  <si>
-    <t>sigma_2</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -829,6 +820,27 @@
   </si>
   <si>
     <t>beta</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>is_piecewise</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>upper_limit</t>
+  </si>
+  <si>
+    <t>lower_limit</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Not Available.</t>
   </si>
 </sst>
 </file>
@@ -1629,7 +1641,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1872,15 +1884,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -1899,9 +1902,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -1914,9 +1914,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -1928,9 +1925,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -1973,6 +1967,12 @@
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="534">
@@ -2856,40 +2856,40 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B4" t="s">
         <v>192</v>
@@ -2900,7 +2900,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -2911,21 +2911,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B6" t="s">
         <v>155</v>
       </c>
       <c r="C6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -5281,13 +5281,13 @@
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D2" s="73">
         <v>0</v>
@@ -5296,7 +5296,7 @@
         <v>193</v>
       </c>
       <c r="F2" s="72" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G2" s="75">
         <v>1</v>
@@ -5304,13 +5304,13 @@
     </row>
     <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D3" s="73">
         <v>2.5954017126034994E-2</v>
@@ -5319,7 +5319,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="72" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G3" s="75">
         <v>1</v>
@@ -5327,13 +5327,13 @@
     </row>
     <row r="4" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D4" s="73">
         <v>2.5954017126034994E-2</v>
@@ -5342,30 +5342,30 @@
         <v>16</v>
       </c>
       <c r="F4" s="72" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G4" s="75">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="101" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>200</v>
-      </c>
-      <c r="D5" s="106">
+        <v>199</v>
+      </c>
+      <c r="D5" s="100">
         <v>0.01</v>
       </c>
       <c r="E5" s="59" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="72" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G5" s="75">
         <v>1</v>
@@ -5376,7 +5376,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C6" s="59" t="s">
         <v>45</v>
@@ -5399,7 +5399,7 @@
         <v>55</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C7" s="59" t="s">
         <v>45</v>
@@ -5422,7 +5422,7 @@
         <v>56</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C8" s="59" t="s">
         <v>45</v>
@@ -5445,7 +5445,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C9" s="59" t="s">
         <v>46</v>
@@ -5468,7 +5468,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C10" s="59" t="s">
         <v>46</v>
@@ -5491,7 +5491,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C11" s="59" t="s">
         <v>46</v>
@@ -5514,7 +5514,7 @@
         <v>32</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C12" s="59" t="s">
         <v>46</v>
@@ -5537,7 +5537,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C13" s="59" t="s">
         <v>47</v>
@@ -5560,7 +5560,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C14" s="59" t="s">
         <v>47</v>
@@ -5580,10 +5580,10 @@
     </row>
     <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C15" s="59" t="s">
         <v>44</v>
@@ -5606,7 +5606,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C16" s="59" t="s">
         <v>44</v>
@@ -5629,7 +5629,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C17" s="59" t="s">
         <v>44</v>
@@ -5652,7 +5652,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C18" s="59" t="s">
         <v>44</v>
@@ -5675,7 +5675,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C19" s="59" t="s">
         <v>48</v>
@@ -5698,7 +5698,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C20" s="59" t="s">
         <v>48</v>
@@ -5721,7 +5721,7 @@
         <v>40</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C21" s="59" t="s">
         <v>48</v>
@@ -5744,7 +5744,7 @@
         <v>41</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C22" s="59" t="s">
         <v>48</v>
@@ -5767,10 +5767,10 @@
         <v>33</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D23" s="73">
         <v>4.9999999999999992E-3</v>
@@ -5779,7 +5779,7 @@
         <v>52</v>
       </c>
       <c r="F23" s="59" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G23" s="75">
         <v>1</v>
@@ -5790,10 +5790,10 @@
         <v>5</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D24" s="73">
         <v>6.6793425473104144E-3</v>
@@ -5802,7 +5802,7 @@
         <v>16</v>
       </c>
       <c r="F24" s="59" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G24" s="75">
         <v>1</v>
@@ -5813,10 +5813,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C25" s="59" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D25" s="73">
         <v>6.6793425473104144E-3</v>
@@ -5825,7 +5825,7 @@
         <v>16</v>
       </c>
       <c r="F25" s="59" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G25" s="75">
         <v>1</v>
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C26" s="59" t="s">
         <v>51</v>
@@ -5848,7 +5848,7 @@
         <v>52</v>
       </c>
       <c r="F26" s="59" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G26" s="75">
         <v>1</v>
@@ -5859,7 +5859,7 @@
         <v>57</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C27" s="59" t="s">
         <v>42</v>
@@ -5882,7 +5882,7 @@
         <v>58</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C28" s="59" t="s">
         <v>42</v>
@@ -5905,7 +5905,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C29" s="59" t="s">
         <v>51</v>
@@ -5928,7 +5928,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C30" s="59" t="s">
         <v>51</v>
@@ -6000,16 +6000,16 @@
         <v>28</v>
       </c>
       <c r="C33" s="59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D33" s="73">
         <v>0</v>
       </c>
-      <c r="E33" s="105" t="s">
+      <c r="E33" s="99" t="s">
         <v>18</v>
       </c>
       <c r="F33" s="59" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G33" s="75">
         <v>1</v>
@@ -6023,16 +6023,16 @@
         <v>28</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D34" s="73">
         <v>0</v>
       </c>
-      <c r="E34" s="105" t="s">
+      <c r="E34" s="99" t="s">
         <v>18</v>
       </c>
       <c r="F34" s="59" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G34" s="75">
         <v>1</v>
@@ -6089,24 +6089,24 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C1" s="79" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D1" s="79" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C2" s="80">
         <v>1</v>
@@ -6117,10 +6117,10 @@
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C3" s="80">
         <v>1</v>
@@ -6131,7 +6131,7 @@
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B4" s="59" t="s">
         <v>10</v>
@@ -6145,7 +6145,7 @@
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B5" s="59" t="s">
         <v>10</v>
@@ -6353,17 +6353,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="114" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="114" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="114" t="s">
+    <row r="20" spans="1:4" s="108" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="115">
-        <v>1</v>
-      </c>
-      <c r="D20" s="114">
+      <c r="C20" s="109">
+        <v>1</v>
+      </c>
+      <c r="D20" s="108">
         <v>1</v>
       </c>
     </row>
@@ -6397,7 +6397,7 @@
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="59" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B23" s="59" t="s">
         <v>11</v>
@@ -6717,21 +6717,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B2" s="62">
         <v>100</v>
@@ -6745,7 +6745,7 @@
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B3" s="62">
         <v>100</v>
@@ -6804,19 +6804,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1" s="61" t="s">
         <v>244</v>
-      </c>
-      <c r="B1" s="60" t="s">
-        <v>245</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>246</v>
-      </c>
-      <c r="D1" s="61" t="s">
-        <v>242</v>
-      </c>
-      <c r="E1" s="61" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6865,3610 +6865,3977 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF804000"/>
   </sheetPr>
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:P77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4" customWidth="1"/>
-    <col min="5" max="6" width="14.125" style="5" customWidth="1"/>
-    <col min="7" max="11" width="11.125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="12.625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="5" customWidth="1"/>
-    <col min="14" max="14" width="16.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="65.625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="44.625" style="6" customWidth="1"/>
-    <col min="17" max="16384" width="10.875" style="6"/>
+    <col min="1" max="1" width="10.875" style="110"/>
+    <col min="2" max="2" width="22.625" style="4" customWidth="1"/>
+    <col min="3" max="4" width="11.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="4" customWidth="1"/>
+    <col min="6" max="7" width="14.125" style="5" customWidth="1"/>
+    <col min="8" max="12" width="11.125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="12.5" style="5" customWidth="1"/>
+    <col min="15" max="15" width="16.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="65.625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="44.625" style="6" customWidth="1"/>
+    <col min="18" max="16384" width="10.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:16" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="C1" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="D1" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="81" t="s">
-        <v>199</v>
-      </c>
-      <c r="E1" s="89" t="s">
-        <v>265</v>
-      </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="86" t="s">
+        <v>262</v>
+      </c>
+      <c r="G1" s="86" t="s">
+        <v>263</v>
+      </c>
+      <c r="H1" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="84" t="s">
+        <v>201</v>
+      </c>
+      <c r="K1" s="84" t="s">
+        <v>267</v>
+      </c>
+      <c r="L1" s="84" t="s">
+        <v>268</v>
+      </c>
+      <c r="M1" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="85" t="s">
+        <v>218</v>
+      </c>
+      <c r="P1" s="102" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="111">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="G1" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="87" t="s">
+      <c r="E2" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="54">
+        <v>0.42</v>
+      </c>
+      <c r="G2" s="54">
+        <v>0.16</v>
+      </c>
+      <c r="H2" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="55">
+        <v>1</v>
+      </c>
+      <c r="J2" s="82" t="s">
         <v>202</v>
       </c>
-      <c r="J1" s="87" t="s">
-        <v>203</v>
-      </c>
-      <c r="K1" s="87" t="s">
-        <v>204</v>
-      </c>
-      <c r="L1" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="88" t="s">
-        <v>221</v>
-      </c>
-      <c r="O1" s="108" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="K2" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L2" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M2" s="7">
+        <v>5</v>
+      </c>
+      <c r="N2" s="55">
+        <f t="shared" ref="N2:N9" si="0">O2/NORMINV(0.95,0,1)</f>
+        <v>0.1823870495735308</v>
+      </c>
+      <c r="O2" s="103">
+        <v>0.3</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="111">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="83">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54">
-        <v>0.42</v>
-      </c>
-      <c r="F2" s="54">
-        <v>0.16</v>
-      </c>
-      <c r="G2" s="55">
-        <v>0.1</v>
-      </c>
-      <c r="H2" s="55">
-        <v>1</v>
-      </c>
-      <c r="I2" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="J2" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="K2" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="L2" s="7">
-        <v>5</v>
-      </c>
-      <c r="M2" s="55">
-        <f t="shared" ref="M2:M9" si="0">N2/NORMINV(0.95,0,1)</f>
-        <v>0.1823870495735308</v>
-      </c>
-      <c r="N2" s="109">
+      <c r="F3" s="56">
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="G3" s="56">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H3" s="57">
         <v>0.3</v>
       </c>
-      <c r="O2" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="D3" s="82">
-        <v>1</v>
-      </c>
-      <c r="E3" s="56">
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="F3" s="56">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G3" s="57">
-        <v>0.3</v>
-      </c>
-      <c r="H3" s="57">
-        <v>0</v>
-      </c>
-      <c r="I3" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J3" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K3" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L3" s="9">
+      <c r="I3" s="57">
+        <v>0</v>
+      </c>
+      <c r="J3" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K3" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L3" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M3" s="9">
         <v>10</v>
       </c>
-      <c r="M3" s="57">
+      <c r="N3" s="57">
         <f t="shared" si="0"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="N3" s="110">
+      <c r="O3" s="104">
         <v>2</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="P3" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>222</v>
+    <row r="4" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="111">
+        <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="82">
-        <v>1</v>
-      </c>
-      <c r="E4" s="56">
+      <c r="F4" s="56">
         <v>0.78</v>
       </c>
-      <c r="F4" s="56">
+      <c r="G4" s="56">
         <v>0.35</v>
       </c>
-      <c r="G4" s="57">
+      <c r="H4" s="57">
         <v>0.75</v>
       </c>
-      <c r="H4" s="57">
-        <v>0</v>
-      </c>
-      <c r="I4" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J4" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K4" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L4" s="9">
+      <c r="I4" s="57">
+        <v>0</v>
+      </c>
+      <c r="J4" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K4" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L4" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M4" s="9">
         <v>21</v>
       </c>
-      <c r="M4" s="57">
+      <c r="N4" s="57">
         <f t="shared" si="0"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="N4" s="110">
+      <c r="O4" s="104">
         <v>3</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="P4" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>222</v>
+    <row r="5" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="111">
+        <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D5" s="82">
-        <v>1</v>
-      </c>
-      <c r="E5" s="56">
+      <c r="F5" s="56">
         <v>1.33</v>
       </c>
-      <c r="F5" s="56">
+      <c r="G5" s="56">
         <v>0.4</v>
       </c>
-      <c r="G5" s="57">
-        <v>1</v>
-      </c>
       <c r="H5" s="57">
-        <v>0</v>
-      </c>
-      <c r="I5" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J5" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K5" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L5" s="52">
+        <v>1</v>
+      </c>
+      <c r="I5" s="57">
+        <v>0</v>
+      </c>
+      <c r="J5" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K5" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L5" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M5" s="52">
         <f>10*30/7</f>
         <v>42.857142857142854</v>
       </c>
-      <c r="M5" s="57">
+      <c r="N5" s="57">
         <f t="shared" si="0"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="N5" s="110">
+      <c r="O5" s="104">
         <v>4</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="P5" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>223</v>
+    <row r="6" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="111">
+        <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="83">
-        <v>1</v>
-      </c>
-      <c r="E6" s="54">
+      <c r="F6" s="54">
         <v>0.42</v>
       </c>
-      <c r="F6" s="54">
+      <c r="G6" s="54">
         <v>0.16</v>
       </c>
-      <c r="G6" s="55">
+      <c r="H6" s="55">
         <v>0.1</v>
       </c>
-      <c r="H6" s="55">
-        <v>1</v>
-      </c>
-      <c r="I6" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="J6" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="K6" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="L6" s="7">
+      <c r="I6" s="55">
+        <v>1</v>
+      </c>
+      <c r="J6" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="K6" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L6" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M6" s="7">
         <v>5</v>
       </c>
-      <c r="M6" s="55">
+      <c r="N6" s="55">
         <f t="shared" si="0"/>
         <v>0.1823870495735308</v>
       </c>
-      <c r="N6" s="109">
+      <c r="O6" s="103">
         <v>0.3</v>
       </c>
-      <c r="O6" s="14"/>
-    </row>
-    <row r="7" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>223</v>
+      <c r="P6" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="111">
+        <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="82">
-        <v>1</v>
-      </c>
-      <c r="E7" s="56">
+      <c r="F7" s="56">
         <v>0.57000000000000006</v>
       </c>
-      <c r="F7" s="56">
+      <c r="G7" s="56">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G7" s="57">
+      <c r="H7" s="57">
         <v>0.3</v>
       </c>
-      <c r="H7" s="57">
-        <v>0</v>
-      </c>
-      <c r="I7" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J7" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K7" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L7" s="9">
+      <c r="I7" s="57">
+        <v>0</v>
+      </c>
+      <c r="J7" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K7" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L7" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M7" s="9">
         <v>10</v>
       </c>
-      <c r="M7" s="57">
+      <c r="N7" s="57">
         <f t="shared" si="0"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="N7" s="110">
+      <c r="O7" s="104">
         <v>2</v>
       </c>
-      <c r="O7" s="15"/>
-    </row>
-    <row r="8" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>223</v>
+      <c r="P7" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="111">
+        <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="82">
-        <v>1</v>
-      </c>
-      <c r="E8" s="56">
+      <c r="F8" s="56">
         <v>0.78</v>
       </c>
-      <c r="F8" s="56">
+      <c r="G8" s="56">
         <v>0.35</v>
       </c>
-      <c r="G8" s="57">
+      <c r="H8" s="57">
         <v>0.75</v>
       </c>
-      <c r="H8" s="57">
-        <v>0</v>
-      </c>
-      <c r="I8" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J8" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K8" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L8" s="9">
+      <c r="I8" s="57">
+        <v>0</v>
+      </c>
+      <c r="J8" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K8" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L8" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M8" s="9">
         <v>21</v>
       </c>
-      <c r="M8" s="57">
+      <c r="N8" s="57">
         <f t="shared" si="0"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="N8" s="110">
+      <c r="O8" s="104">
         <v>3</v>
       </c>
-      <c r="O8" s="15"/>
-    </row>
-    <row r="9" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>223</v>
+      <c r="P8" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="111">
+        <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D9" s="82">
-        <v>1</v>
-      </c>
-      <c r="E9" s="56">
+      <c r="F9" s="56">
         <v>1.33</v>
       </c>
-      <c r="F9" s="56">
+      <c r="G9" s="56">
         <v>0.4</v>
       </c>
-      <c r="G9" s="57">
-        <v>1</v>
-      </c>
       <c r="H9" s="57">
-        <v>0</v>
-      </c>
-      <c r="I9" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J9" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K9" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L9" s="52">
+        <v>1</v>
+      </c>
+      <c r="I9" s="57">
+        <v>0</v>
+      </c>
+      <c r="J9" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K9" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L9" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M9" s="52">
         <f>10*30/7</f>
         <v>42.857142857142854</v>
       </c>
-      <c r="M9" s="57">
+      <c r="N9" s="57">
         <f t="shared" si="0"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="N9" s="110">
+      <c r="O9" s="104">
         <v>4</v>
       </c>
-      <c r="O9" s="15"/>
-    </row>
-    <row r="10" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>224</v>
+      <c r="P9" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="111">
+        <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D10" s="83">
-        <v>1</v>
-      </c>
-      <c r="E10" s="54">
+      <c r="F10" s="54">
         <v>0.42</v>
       </c>
-      <c r="F10" s="54">
+      <c r="G10" s="54">
         <v>0.16</v>
       </c>
-      <c r="G10" s="55">
+      <c r="H10" s="55">
         <v>0.1</v>
       </c>
-      <c r="H10" s="55">
-        <v>1</v>
-      </c>
-      <c r="I10" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="J10" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="K10" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="L10" s="7">
+      <c r="I10" s="55">
+        <v>1</v>
+      </c>
+      <c r="J10" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="K10" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L10" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M10" s="7">
         <v>5</v>
       </c>
-      <c r="M10" s="55">
-        <f t="shared" ref="M10:M37" si="1">N10/NORMINV(0.95,0,1)</f>
+      <c r="N10" s="55">
+        <f t="shared" ref="N10:N37" si="1">O10/NORMINV(0.95,0,1)</f>
         <v>0.1823870495735308</v>
       </c>
-      <c r="N10" s="109">
+      <c r="O10" s="103">
         <v>0.3</v>
       </c>
-      <c r="O10" s="14"/>
-    </row>
-    <row r="11" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>224</v>
+      <c r="P10" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="111">
+        <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D11" s="82">
-        <v>1</v>
-      </c>
-      <c r="E11" s="56">
+      <c r="F11" s="56">
         <v>0.57000000000000006</v>
       </c>
-      <c r="F11" s="56">
+      <c r="G11" s="56">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G11" s="57">
+      <c r="H11" s="57">
         <v>0.3</v>
       </c>
-      <c r="H11" s="57">
-        <v>0</v>
-      </c>
-      <c r="I11" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J11" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K11" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L11" s="9">
+      <c r="I11" s="57">
+        <v>0</v>
+      </c>
+      <c r="J11" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K11" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L11" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M11" s="9">
         <v>10</v>
       </c>
-      <c r="M11" s="57">
+      <c r="N11" s="57">
         <f t="shared" si="1"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="N11" s="110">
+      <c r="O11" s="104">
         <v>2</v>
       </c>
-      <c r="O11" s="15"/>
-    </row>
-    <row r="12" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>224</v>
+      <c r="P11" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="111">
+        <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D12" s="82">
-        <v>1</v>
-      </c>
-      <c r="E12" s="56">
+      <c r="F12" s="56">
         <v>0.78</v>
       </c>
-      <c r="F12" s="56">
+      <c r="G12" s="56">
         <v>0.35</v>
       </c>
-      <c r="G12" s="57">
+      <c r="H12" s="57">
         <v>0.75</v>
       </c>
-      <c r="H12" s="57">
-        <v>0</v>
-      </c>
-      <c r="I12" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J12" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K12" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L12" s="9">
+      <c r="I12" s="57">
+        <v>0</v>
+      </c>
+      <c r="J12" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K12" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L12" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M12" s="9">
         <v>21</v>
       </c>
-      <c r="M12" s="57">
+      <c r="N12" s="57">
         <f t="shared" si="1"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="N12" s="110">
+      <c r="O12" s="104">
         <v>3</v>
       </c>
-      <c r="O12" s="15"/>
-    </row>
-    <row r="13" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>224</v>
+      <c r="P12" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="111">
+        <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="D13" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D13" s="82">
-        <v>1</v>
-      </c>
-      <c r="E13" s="56">
+      <c r="F13" s="56">
         <v>1.33</v>
       </c>
-      <c r="F13" s="56">
+      <c r="G13" s="56">
         <v>0.4</v>
       </c>
-      <c r="G13" s="57">
-        <v>1</v>
-      </c>
       <c r="H13" s="57">
-        <v>0</v>
-      </c>
-      <c r="I13" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J13" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K13" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L13" s="52">
+        <v>1</v>
+      </c>
+      <c r="I13" s="57">
+        <v>0</v>
+      </c>
+      <c r="J13" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K13" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L13" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M13" s="52">
         <f>10*30/7</f>
         <v>42.857142857142854</v>
       </c>
-      <c r="M13" s="57">
+      <c r="N13" s="57">
         <f t="shared" si="1"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="N13" s="110">
+      <c r="O13" s="104">
         <v>4</v>
       </c>
-      <c r="O13" s="15"/>
-    </row>
-    <row r="14" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>225</v>
+      <c r="P13" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="111">
+        <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D14" s="83">
-        <v>1</v>
-      </c>
-      <c r="E14" s="54">
+      <c r="F14" s="54">
         <v>0.42</v>
       </c>
-      <c r="F14" s="54">
+      <c r="G14" s="54">
         <v>0.16</v>
       </c>
-      <c r="G14" s="55">
+      <c r="H14" s="55">
         <v>0.1</v>
       </c>
-      <c r="H14" s="55">
-        <v>1</v>
-      </c>
-      <c r="I14" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="J14" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="K14" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="L14" s="7">
+      <c r="I14" s="55">
+        <v>1</v>
+      </c>
+      <c r="J14" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="K14" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L14" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M14" s="7">
         <v>5</v>
       </c>
-      <c r="M14" s="55">
+      <c r="N14" s="55">
         <f t="shared" si="1"/>
         <v>0.1823870495735308</v>
       </c>
-      <c r="N14" s="109">
+      <c r="O14" s="103">
         <v>0.3</v>
       </c>
-      <c r="O14" s="14"/>
-    </row>
-    <row r="15" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>225</v>
+      <c r="P14" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="111">
+        <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D15" s="82">
-        <v>1</v>
-      </c>
-      <c r="E15" s="56">
+      <c r="F15" s="56">
         <v>0.57000000000000006</v>
       </c>
-      <c r="F15" s="56">
+      <c r="G15" s="56">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G15" s="57">
+      <c r="H15" s="57">
         <v>0.3</v>
       </c>
-      <c r="H15" s="57">
-        <v>0</v>
-      </c>
-      <c r="I15" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J15" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K15" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L15" s="9">
+      <c r="I15" s="57">
+        <v>0</v>
+      </c>
+      <c r="J15" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K15" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L15" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M15" s="9">
         <v>10</v>
       </c>
-      <c r="M15" s="57">
+      <c r="N15" s="57">
         <f t="shared" si="1"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="N15" s="110">
+      <c r="O15" s="104">
         <v>2</v>
       </c>
-      <c r="O15" s="15"/>
-    </row>
-    <row r="16" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>225</v>
+      <c r="P15" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="111">
+        <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D16" s="82">
-        <v>1</v>
-      </c>
-      <c r="E16" s="56">
+      <c r="F16" s="56">
         <v>0.78</v>
       </c>
-      <c r="F16" s="56">
+      <c r="G16" s="56">
         <v>0.35</v>
       </c>
-      <c r="G16" s="57">
+      <c r="H16" s="57">
         <v>0.75</v>
       </c>
-      <c r="H16" s="57">
-        <v>0</v>
-      </c>
-      <c r="I16" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J16" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K16" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L16" s="9">
+      <c r="I16" s="57">
+        <v>0</v>
+      </c>
+      <c r="J16" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K16" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L16" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M16" s="9">
         <v>21</v>
       </c>
-      <c r="M16" s="57">
+      <c r="N16" s="57">
         <f t="shared" si="1"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="N16" s="110">
+      <c r="O16" s="104">
         <v>3</v>
       </c>
-      <c r="O16" s="15"/>
-    </row>
-    <row r="17" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>225</v>
+      <c r="P16" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="111">
+        <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="D17" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D17" s="82">
-        <v>1</v>
-      </c>
-      <c r="E17" s="56">
+      <c r="F17" s="56">
         <v>1.33</v>
       </c>
-      <c r="F17" s="56">
+      <c r="G17" s="56">
         <v>0.4</v>
       </c>
-      <c r="G17" s="57">
-        <v>1</v>
-      </c>
       <c r="H17" s="57">
-        <v>0</v>
-      </c>
-      <c r="I17" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J17" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K17" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L17" s="52">
+        <v>1</v>
+      </c>
+      <c r="I17" s="57">
+        <v>0</v>
+      </c>
+      <c r="J17" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K17" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L17" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M17" s="52">
         <f>10*30/7</f>
         <v>42.857142857142854</v>
       </c>
-      <c r="M17" s="57">
+      <c r="N17" s="57">
         <f t="shared" si="1"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="N17" s="110">
+      <c r="O17" s="104">
         <v>4</v>
       </c>
-      <c r="O17" s="15"/>
-    </row>
-    <row r="18" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>226</v>
+      <c r="P17" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="111">
+        <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="83">
-        <v>1</v>
-      </c>
-      <c r="E18" s="54">
+      <c r="F18" s="54">
         <v>0.42</v>
       </c>
-      <c r="F18" s="54">
+      <c r="G18" s="54">
         <v>0.16</v>
       </c>
-      <c r="G18" s="55">
+      <c r="H18" s="55">
         <v>0.1</v>
       </c>
-      <c r="H18" s="55">
-        <v>1</v>
-      </c>
-      <c r="I18" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="J18" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="K18" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="L18" s="7">
+      <c r="I18" s="55">
+        <v>1</v>
+      </c>
+      <c r="J18" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="K18" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L18" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M18" s="7">
         <v>5</v>
       </c>
-      <c r="M18" s="55">
+      <c r="N18" s="55">
         <f t="shared" si="1"/>
         <v>0.1823870495735308</v>
       </c>
-      <c r="N18" s="109">
+      <c r="O18" s="103">
         <v>0.3</v>
       </c>
-      <c r="O18" s="14"/>
-    </row>
-    <row r="19" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>226</v>
+      <c r="P18" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="111">
+        <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="D19" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D19" s="82">
-        <v>1</v>
-      </c>
-      <c r="E19" s="56">
+      <c r="F19" s="56">
         <v>0.57000000000000006</v>
       </c>
-      <c r="F19" s="56">
+      <c r="G19" s="56">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G19" s="57">
+      <c r="H19" s="57">
         <v>0.3</v>
       </c>
-      <c r="H19" s="57">
-        <v>0</v>
-      </c>
-      <c r="I19" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J19" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K19" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L19" s="9">
+      <c r="I19" s="57">
+        <v>0</v>
+      </c>
+      <c r="J19" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K19" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L19" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M19" s="9">
         <v>10</v>
       </c>
-      <c r="M19" s="57">
+      <c r="N19" s="57">
         <f t="shared" si="1"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="N19" s="110">
+      <c r="O19" s="104">
         <v>2</v>
       </c>
-      <c r="O19" s="15"/>
-    </row>
-    <row r="20" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>226</v>
+      <c r="P19" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="111">
+        <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D20" s="82">
-        <v>1</v>
-      </c>
-      <c r="E20" s="56">
+      <c r="F20" s="56">
         <v>0.78</v>
       </c>
-      <c r="F20" s="56">
+      <c r="G20" s="56">
         <v>0.35</v>
       </c>
-      <c r="G20" s="57">
+      <c r="H20" s="57">
         <v>0.75</v>
       </c>
-      <c r="H20" s="57">
-        <v>0</v>
-      </c>
-      <c r="I20" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J20" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K20" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L20" s="9">
+      <c r="I20" s="57">
+        <v>0</v>
+      </c>
+      <c r="J20" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K20" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L20" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M20" s="9">
         <v>21</v>
       </c>
-      <c r="M20" s="57">
+      <c r="N20" s="57">
         <f t="shared" si="1"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="N20" s="110">
+      <c r="O20" s="104">
         <v>3</v>
       </c>
-      <c r="O20" s="15"/>
-    </row>
-    <row r="21" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>226</v>
+      <c r="P20" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="111">
+        <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="D21" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D21" s="82">
-        <v>1</v>
-      </c>
-      <c r="E21" s="56">
+      <c r="F21" s="56">
         <v>1.33</v>
       </c>
-      <c r="F21" s="56">
+      <c r="G21" s="56">
         <v>0.4</v>
       </c>
-      <c r="G21" s="57">
-        <v>1</v>
-      </c>
       <c r="H21" s="57">
-        <v>0</v>
-      </c>
-      <c r="I21" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J21" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K21" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L21" s="52">
+        <v>1</v>
+      </c>
+      <c r="I21" s="57">
+        <v>0</v>
+      </c>
+      <c r="J21" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K21" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L21" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M21" s="52">
         <f>10*30/7</f>
         <v>42.857142857142854</v>
       </c>
-      <c r="M21" s="57">
+      <c r="N21" s="57">
         <f t="shared" si="1"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="N21" s="110">
+      <c r="O21" s="104">
         <v>4</v>
       </c>
-      <c r="O21" s="15"/>
-    </row>
-    <row r="22" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>227</v>
+      <c r="P21" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="111">
+        <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D22" s="83">
-        <v>1</v>
-      </c>
-      <c r="E22" s="54">
+      <c r="F22" s="54">
         <v>0.42</v>
       </c>
-      <c r="F22" s="54">
+      <c r="G22" s="54">
         <v>0.16</v>
       </c>
-      <c r="G22" s="55">
+      <c r="H22" s="55">
         <v>0.1</v>
       </c>
-      <c r="H22" s="55">
-        <v>1</v>
-      </c>
-      <c r="I22" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="J22" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="K22" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="L22" s="7">
+      <c r="I22" s="55">
+        <v>1</v>
+      </c>
+      <c r="J22" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L22" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M22" s="7">
         <v>5</v>
       </c>
-      <c r="M22" s="55">
+      <c r="N22" s="55">
         <f t="shared" si="1"/>
         <v>0.1823870495735308</v>
       </c>
-      <c r="N22" s="109">
+      <c r="O22" s="103">
         <v>0.3</v>
       </c>
-      <c r="O22" s="14"/>
-    </row>
-    <row r="23" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>227</v>
+      <c r="P22" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="111">
+        <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="D23" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D23" s="82">
-        <v>1</v>
-      </c>
-      <c r="E23" s="56">
+      <c r="F23" s="56">
         <v>0.57000000000000006</v>
       </c>
-      <c r="F23" s="56">
+      <c r="G23" s="56">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G23" s="57">
+      <c r="H23" s="57">
         <v>0.3</v>
       </c>
-      <c r="H23" s="57">
-        <v>0</v>
-      </c>
-      <c r="I23" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J23" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K23" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L23" s="9">
+      <c r="I23" s="57">
+        <v>0</v>
+      </c>
+      <c r="J23" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K23" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L23" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M23" s="9">
         <v>10</v>
       </c>
-      <c r="M23" s="57">
+      <c r="N23" s="57">
         <f t="shared" si="1"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="N23" s="110">
+      <c r="O23" s="104">
         <v>2</v>
       </c>
-      <c r="O23" s="15"/>
-    </row>
-    <row r="24" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>227</v>
+      <c r="P23" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="111">
+        <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="D24" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D24" s="82">
-        <v>1</v>
-      </c>
-      <c r="E24" s="56">
+      <c r="F24" s="56">
         <v>0.78</v>
       </c>
-      <c r="F24" s="56">
+      <c r="G24" s="56">
         <v>0.35</v>
       </c>
-      <c r="G24" s="57">
+      <c r="H24" s="57">
         <v>0.75</v>
       </c>
-      <c r="H24" s="57">
-        <v>0</v>
-      </c>
-      <c r="I24" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J24" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K24" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L24" s="9">
+      <c r="I24" s="57">
+        <v>0</v>
+      </c>
+      <c r="J24" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K24" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L24" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M24" s="9">
         <v>21</v>
       </c>
-      <c r="M24" s="57">
+      <c r="N24" s="57">
         <f t="shared" si="1"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="N24" s="110">
+      <c r="O24" s="104">
         <v>3</v>
       </c>
-      <c r="O24" s="15"/>
-    </row>
-    <row r="25" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>227</v>
+      <c r="P24" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="111">
+        <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="D25" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D25" s="82">
-        <v>1</v>
-      </c>
-      <c r="E25" s="56">
+      <c r="F25" s="56">
         <v>1.33</v>
       </c>
-      <c r="F25" s="56">
+      <c r="G25" s="56">
         <v>0.4</v>
       </c>
-      <c r="G25" s="57">
-        <v>1</v>
-      </c>
       <c r="H25" s="57">
-        <v>0</v>
-      </c>
-      <c r="I25" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J25" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K25" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L25" s="52">
+        <v>1</v>
+      </c>
+      <c r="I25" s="57">
+        <v>0</v>
+      </c>
+      <c r="J25" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K25" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L25" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M25" s="52">
         <f>10*30/7</f>
         <v>42.857142857142854</v>
       </c>
-      <c r="M25" s="57">
+      <c r="N25" s="57">
         <f t="shared" si="1"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="N25" s="110">
+      <c r="O25" s="104">
         <v>4</v>
       </c>
-      <c r="O25" s="15"/>
-    </row>
-    <row r="26" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>228</v>
+      <c r="P25" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="111">
+        <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="D26" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D26" s="83">
-        <v>1</v>
-      </c>
-      <c r="E26" s="54">
+      <c r="F26" s="54">
         <v>0.42</v>
       </c>
-      <c r="F26" s="54">
+      <c r="G26" s="54">
         <v>0.16</v>
       </c>
-      <c r="G26" s="55">
+      <c r="H26" s="55">
         <v>0.1</v>
       </c>
-      <c r="H26" s="55">
-        <v>1</v>
-      </c>
-      <c r="I26" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="J26" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="K26" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="L26" s="7">
+      <c r="I26" s="55">
+        <v>1</v>
+      </c>
+      <c r="J26" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="K26" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L26" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M26" s="7">
         <v>5</v>
       </c>
-      <c r="M26" s="55">
+      <c r="N26" s="55">
         <f t="shared" si="1"/>
         <v>0.1823870495735308</v>
       </c>
-      <c r="N26" s="109">
+      <c r="O26" s="103">
         <v>0.3</v>
       </c>
-      <c r="O26" s="14"/>
-    </row>
-    <row r="27" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>228</v>
+      <c r="P26" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="111">
+        <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="D27" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D27" s="82">
-        <v>1</v>
-      </c>
-      <c r="E27" s="56">
+      <c r="F27" s="56">
         <v>0.57000000000000006</v>
       </c>
-      <c r="F27" s="56">
+      <c r="G27" s="56">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G27" s="57">
+      <c r="H27" s="57">
         <v>0.3</v>
       </c>
-      <c r="H27" s="57">
-        <v>0</v>
-      </c>
-      <c r="I27" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J27" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K27" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L27" s="9">
+      <c r="I27" s="57">
+        <v>0</v>
+      </c>
+      <c r="J27" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K27" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L27" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M27" s="9">
         <v>10</v>
       </c>
-      <c r="M27" s="57">
+      <c r="N27" s="57">
         <f t="shared" si="1"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="N27" s="110">
+      <c r="O27" s="104">
         <v>2</v>
       </c>
-      <c r="O27" s="15"/>
-    </row>
-    <row r="28" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>228</v>
+      <c r="P27" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="111">
+        <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="D28" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D28" s="82">
-        <v>1</v>
-      </c>
-      <c r="E28" s="56">
+      <c r="F28" s="56">
         <v>0.78</v>
       </c>
-      <c r="F28" s="56">
+      <c r="G28" s="56">
         <v>0.35</v>
       </c>
-      <c r="G28" s="57">
+      <c r="H28" s="57">
         <v>0.75</v>
       </c>
-      <c r="H28" s="57">
-        <v>0</v>
-      </c>
-      <c r="I28" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J28" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K28" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L28" s="9">
+      <c r="I28" s="57">
+        <v>0</v>
+      </c>
+      <c r="J28" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K28" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L28" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M28" s="9">
         <v>21</v>
       </c>
-      <c r="M28" s="57">
+      <c r="N28" s="57">
         <f t="shared" si="1"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="N28" s="110">
+      <c r="O28" s="104">
         <v>3</v>
       </c>
-      <c r="O28" s="15"/>
-    </row>
-    <row r="29" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>228</v>
+      <c r="P28" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="111">
+        <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="D29" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D29" s="82">
-        <v>1</v>
-      </c>
-      <c r="E29" s="56">
+      <c r="F29" s="56">
         <v>1.33</v>
       </c>
-      <c r="F29" s="56">
+      <c r="G29" s="56">
         <v>0.4</v>
       </c>
-      <c r="G29" s="57">
-        <v>1</v>
-      </c>
       <c r="H29" s="57">
-        <v>0</v>
-      </c>
-      <c r="I29" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J29" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K29" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L29" s="52">
+        <v>1</v>
+      </c>
+      <c r="I29" s="57">
+        <v>0</v>
+      </c>
+      <c r="J29" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K29" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L29" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M29" s="52">
         <f>10*30/7</f>
         <v>42.857142857142854</v>
       </c>
-      <c r="M29" s="57">
+      <c r="N29" s="57">
         <f t="shared" si="1"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="N29" s="110">
+      <c r="O29" s="104">
         <v>4</v>
       </c>
-      <c r="O29" s="15"/>
-    </row>
-    <row r="30" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>229</v>
+      <c r="P29" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="111">
+        <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="D30" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D30" s="83">
-        <v>1</v>
-      </c>
-      <c r="E30" s="54">
+      <c r="F30" s="54">
         <v>0.42</v>
       </c>
-      <c r="F30" s="54">
+      <c r="G30" s="54">
         <v>0.16</v>
       </c>
-      <c r="G30" s="55">
+      <c r="H30" s="55">
         <v>0.1</v>
       </c>
-      <c r="H30" s="55">
-        <v>1</v>
-      </c>
-      <c r="I30" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="J30" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="K30" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="L30" s="7">
+      <c r="I30" s="55">
+        <v>1</v>
+      </c>
+      <c r="J30" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="K30" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L30" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M30" s="7">
         <v>5</v>
       </c>
-      <c r="M30" s="55">
+      <c r="N30" s="55">
         <f t="shared" si="1"/>
         <v>0.1823870495735308</v>
       </c>
-      <c r="N30" s="109">
+      <c r="O30" s="103">
         <v>0.3</v>
       </c>
-      <c r="O30" s="14"/>
-    </row>
-    <row r="31" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>229</v>
+      <c r="P30" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="111">
+        <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="D31" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D31" s="82">
-        <v>1</v>
-      </c>
-      <c r="E31" s="56">
+      <c r="F31" s="56">
         <v>0.57000000000000006</v>
       </c>
-      <c r="F31" s="56">
+      <c r="G31" s="56">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G31" s="57">
+      <c r="H31" s="57">
         <v>0.3</v>
       </c>
-      <c r="H31" s="57">
-        <v>0</v>
-      </c>
-      <c r="I31" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J31" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K31" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L31" s="9">
+      <c r="I31" s="57">
+        <v>0</v>
+      </c>
+      <c r="J31" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K31" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L31" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M31" s="9">
         <v>10</v>
       </c>
-      <c r="M31" s="57">
+      <c r="N31" s="57">
         <f t="shared" si="1"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="N31" s="110">
+      <c r="O31" s="104">
         <v>2</v>
       </c>
-      <c r="O31" s="15"/>
-    </row>
-    <row r="32" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>229</v>
+      <c r="P31" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="111">
+        <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="D32" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D32" s="82">
-        <v>1</v>
-      </c>
-      <c r="E32" s="56">
+      <c r="F32" s="56">
         <v>0.78</v>
       </c>
-      <c r="F32" s="56">
+      <c r="G32" s="56">
         <v>0.35</v>
       </c>
-      <c r="G32" s="57">
+      <c r="H32" s="57">
         <v>0.75</v>
       </c>
-      <c r="H32" s="57">
-        <v>0</v>
-      </c>
-      <c r="I32" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J32" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K32" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L32" s="9">
+      <c r="I32" s="57">
+        <v>0</v>
+      </c>
+      <c r="J32" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K32" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L32" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M32" s="9">
         <v>21</v>
       </c>
-      <c r="M32" s="57">
+      <c r="N32" s="57">
         <f t="shared" si="1"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="N32" s="110">
+      <c r="O32" s="104">
         <v>3</v>
       </c>
-      <c r="O32" s="15"/>
-    </row>
-    <row r="33" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>229</v>
+      <c r="P32" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="111">
+        <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="D33" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D33" s="82">
-        <v>1</v>
-      </c>
-      <c r="E33" s="56">
+      <c r="F33" s="56">
         <v>1.33</v>
       </c>
-      <c r="F33" s="56">
+      <c r="G33" s="56">
         <v>0.4</v>
       </c>
-      <c r="G33" s="57">
-        <v>1</v>
-      </c>
       <c r="H33" s="57">
-        <v>0</v>
-      </c>
-      <c r="I33" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J33" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K33" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L33" s="52">
+        <v>1</v>
+      </c>
+      <c r="I33" s="57">
+        <v>0</v>
+      </c>
+      <c r="J33" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K33" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L33" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M33" s="52">
         <f>10*30/7</f>
         <v>42.857142857142854</v>
       </c>
-      <c r="M33" s="57">
+      <c r="N33" s="57">
         <f t="shared" si="1"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="N33" s="110">
+      <c r="O33" s="104">
         <v>4</v>
       </c>
-      <c r="O33" s="15"/>
-    </row>
-    <row r="34" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>230</v>
+      <c r="P33" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="111">
+        <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="D34" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D34" s="83">
-        <v>1</v>
-      </c>
-      <c r="E34" s="54">
+      <c r="F34" s="54">
         <v>0.42</v>
       </c>
-      <c r="F34" s="54">
+      <c r="G34" s="54">
         <v>0.16</v>
       </c>
-      <c r="G34" s="55">
+      <c r="H34" s="55">
         <v>0.1</v>
       </c>
-      <c r="H34" s="55">
-        <v>1</v>
-      </c>
-      <c r="I34" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="J34" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="K34" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="L34" s="7">
+      <c r="I34" s="55">
+        <v>1</v>
+      </c>
+      <c r="J34" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="K34" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L34" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M34" s="7">
         <v>5</v>
       </c>
-      <c r="M34" s="55">
+      <c r="N34" s="55">
         <f t="shared" si="1"/>
         <v>0.1823870495735308</v>
       </c>
-      <c r="N34" s="109">
+      <c r="O34" s="103">
         <v>0.3</v>
       </c>
-      <c r="O34" s="14"/>
-    </row>
-    <row r="35" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>230</v>
+      <c r="P34" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="111">
+        <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="D35" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D35" s="82">
-        <v>1</v>
-      </c>
-      <c r="E35" s="56">
+      <c r="F35" s="56">
         <v>0.57000000000000006</v>
       </c>
-      <c r="F35" s="56">
+      <c r="G35" s="56">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G35" s="57">
+      <c r="H35" s="57">
         <v>0.3</v>
       </c>
-      <c r="H35" s="57">
-        <v>0</v>
-      </c>
-      <c r="I35" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J35" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K35" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L35" s="9">
+      <c r="I35" s="57">
+        <v>0</v>
+      </c>
+      <c r="J35" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K35" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L35" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M35" s="9">
         <v>10</v>
       </c>
-      <c r="M35" s="57">
+      <c r="N35" s="57">
         <f t="shared" si="1"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="N35" s="110">
+      <c r="O35" s="104">
         <v>2</v>
       </c>
-      <c r="O35" s="15"/>
-    </row>
-    <row r="36" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>230</v>
+      <c r="P35" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="111">
+        <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="D36" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D36" s="82">
-        <v>1</v>
-      </c>
-      <c r="E36" s="56">
+      <c r="F36" s="56">
         <v>0.78</v>
       </c>
-      <c r="F36" s="56">
+      <c r="G36" s="56">
         <v>0.35</v>
       </c>
-      <c r="G36" s="57">
+      <c r="H36" s="57">
         <v>0.75</v>
       </c>
-      <c r="H36" s="57">
-        <v>0</v>
-      </c>
-      <c r="I36" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J36" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K36" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L36" s="9">
+      <c r="I36" s="57">
+        <v>0</v>
+      </c>
+      <c r="J36" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K36" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L36" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M36" s="9">
         <v>21</v>
       </c>
-      <c r="M36" s="57">
+      <c r="N36" s="57">
         <f t="shared" si="1"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="N36" s="110">
+      <c r="O36" s="104">
         <v>3</v>
       </c>
-      <c r="O36" s="15"/>
-    </row>
-    <row r="37" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>230</v>
+      <c r="P36" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="111">
+        <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="D37" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D37" s="82">
-        <v>1</v>
-      </c>
-      <c r="E37" s="56">
+      <c r="F37" s="56">
         <v>1.33</v>
       </c>
-      <c r="F37" s="56">
+      <c r="G37" s="56">
         <v>0.4</v>
       </c>
-      <c r="G37" s="57">
-        <v>1</v>
-      </c>
       <c r="H37" s="57">
-        <v>0</v>
-      </c>
-      <c r="I37" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J37" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K37" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L37" s="52">
+        <v>1</v>
+      </c>
+      <c r="I37" s="57">
+        <v>0</v>
+      </c>
+      <c r="J37" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K37" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L37" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M37" s="52">
         <f>10*30/7</f>
         <v>42.857142857142854</v>
       </c>
-      <c r="M37" s="57">
+      <c r="N37" s="57">
         <f t="shared" si="1"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="N37" s="110">
+      <c r="O37" s="104">
         <v>4</v>
       </c>
-      <c r="O37" s="15"/>
-    </row>
-    <row r="38" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>231</v>
+      <c r="P37" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="111">
+        <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="D38" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D38" s="83">
-        <v>1</v>
-      </c>
-      <c r="E38" s="54">
+      <c r="F38" s="54">
         <v>0.42</v>
       </c>
-      <c r="F38" s="54">
+      <c r="G38" s="54">
         <v>0.16</v>
       </c>
-      <c r="G38" s="55">
+      <c r="H38" s="55">
         <v>0.1</v>
       </c>
-      <c r="H38" s="55">
-        <v>1</v>
-      </c>
-      <c r="I38" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="J38" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="K38" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="L38" s="7">
+      <c r="I38" s="55">
+        <v>1</v>
+      </c>
+      <c r="J38" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="K38" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L38" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M38" s="7">
         <v>5</v>
       </c>
-      <c r="M38" s="55">
-        <f t="shared" ref="M38:M65" si="2">N38/NORMINV(0.95,0,1)</f>
+      <c r="N38" s="55">
+        <f t="shared" ref="N38:N65" si="2">O38/NORMINV(0.95,0,1)</f>
         <v>0.1823870495735308</v>
       </c>
-      <c r="N38" s="109">
+      <c r="O38" s="103">
         <v>0.3</v>
       </c>
-      <c r="O38" s="14"/>
-    </row>
-    <row r="39" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>231</v>
+      <c r="P38" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="111">
+        <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="D39" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D39" s="82">
-        <v>1</v>
-      </c>
-      <c r="E39" s="56">
+      <c r="F39" s="56">
         <v>0.57000000000000006</v>
       </c>
-      <c r="F39" s="56">
+      <c r="G39" s="56">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G39" s="57">
+      <c r="H39" s="57">
         <v>0.3</v>
       </c>
-      <c r="H39" s="57">
-        <v>0</v>
-      </c>
-      <c r="I39" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J39" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K39" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L39" s="9">
+      <c r="I39" s="57">
+        <v>0</v>
+      </c>
+      <c r="J39" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K39" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L39" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M39" s="9">
         <v>10</v>
       </c>
-      <c r="M39" s="57">
+      <c r="N39" s="57">
         <f t="shared" si="2"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="N39" s="110">
+      <c r="O39" s="104">
         <v>2</v>
       </c>
-      <c r="O39" s="15"/>
-    </row>
-    <row r="40" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>231</v>
+      <c r="P39" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="111">
+        <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="D40" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D40" s="82">
-        <v>1</v>
-      </c>
-      <c r="E40" s="56">
+      <c r="F40" s="56">
         <v>0.78</v>
       </c>
-      <c r="F40" s="56">
+      <c r="G40" s="56">
         <v>0.35</v>
       </c>
-      <c r="G40" s="57">
+      <c r="H40" s="57">
         <v>0.75</v>
       </c>
-      <c r="H40" s="57">
-        <v>0</v>
-      </c>
-      <c r="I40" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J40" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K40" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L40" s="9">
+      <c r="I40" s="57">
+        <v>0</v>
+      </c>
+      <c r="J40" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K40" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L40" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M40" s="9">
         <v>21</v>
       </c>
-      <c r="M40" s="57">
+      <c r="N40" s="57">
         <f t="shared" si="2"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="N40" s="110">
+      <c r="O40" s="104">
         <v>3</v>
       </c>
-      <c r="O40" s="15"/>
-    </row>
-    <row r="41" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>231</v>
+      <c r="P40" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="111">
+        <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="D41" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E41" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="D41" s="84">
-        <v>1</v>
-      </c>
-      <c r="E41" s="56">
+      <c r="F41" s="56">
         <v>1.33</v>
       </c>
-      <c r="F41" s="56">
+      <c r="G41" s="56">
         <v>0.4</v>
       </c>
-      <c r="G41" s="57">
-        <v>1</v>
-      </c>
       <c r="H41" s="57">
-        <v>0</v>
-      </c>
-      <c r="I41" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J41" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K41" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L41" s="52">
+        <v>1</v>
+      </c>
+      <c r="I41" s="57">
+        <v>0</v>
+      </c>
+      <c r="J41" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K41" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L41" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M41" s="52">
         <f>10*30/7</f>
         <v>42.857142857142854</v>
       </c>
-      <c r="M41" s="57">
+      <c r="N41" s="57">
         <f t="shared" si="2"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="N41" s="110">
+      <c r="O41" s="104">
         <v>4</v>
       </c>
-      <c r="O41" s="16"/>
-    </row>
-    <row r="42" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>232</v>
+      <c r="P41" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="111">
+        <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="D42" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D42" s="83">
-        <v>1</v>
-      </c>
-      <c r="E42" s="54">
+      <c r="F42" s="54">
         <v>0.42</v>
       </c>
-      <c r="F42" s="54">
+      <c r="G42" s="54">
         <v>0.16</v>
       </c>
-      <c r="G42" s="55">
+      <c r="H42" s="55">
         <v>0.1</v>
       </c>
-      <c r="H42" s="55">
-        <v>1</v>
-      </c>
-      <c r="I42" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="J42" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="K42" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="L42" s="7">
+      <c r="I42" s="55">
+        <v>1</v>
+      </c>
+      <c r="J42" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="K42" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L42" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M42" s="7">
         <v>5</v>
       </c>
-      <c r="M42" s="55">
+      <c r="N42" s="55">
         <f t="shared" si="2"/>
         <v>0.1823870495735308</v>
       </c>
-      <c r="N42" s="109">
+      <c r="O42" s="103">
         <v>0.3</v>
       </c>
-      <c r="O42" s="14"/>
-    </row>
-    <row r="43" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>232</v>
+      <c r="P42" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="111">
+        <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="D43" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D43" s="82">
-        <v>1</v>
-      </c>
-      <c r="E43" s="56">
+      <c r="F43" s="56">
         <v>0.57000000000000006</v>
       </c>
-      <c r="F43" s="56">
+      <c r="G43" s="56">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G43" s="57">
+      <c r="H43" s="57">
         <v>0.3</v>
       </c>
-      <c r="H43" s="57">
-        <v>0</v>
-      </c>
-      <c r="I43" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J43" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K43" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L43" s="9">
+      <c r="I43" s="57">
+        <v>0</v>
+      </c>
+      <c r="J43" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K43" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L43" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M43" s="9">
         <v>10</v>
       </c>
-      <c r="M43" s="57">
+      <c r="N43" s="57">
         <f t="shared" si="2"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="N43" s="110">
+      <c r="O43" s="104">
         <v>2</v>
       </c>
-      <c r="O43" s="15"/>
-    </row>
-    <row r="44" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>232</v>
+      <c r="P43" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="111">
+        <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="D44" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D44" s="82">
-        <v>1</v>
-      </c>
-      <c r="E44" s="56">
+      <c r="F44" s="56">
         <v>0.78</v>
       </c>
-      <c r="F44" s="56">
+      <c r="G44" s="56">
         <v>0.35</v>
       </c>
-      <c r="G44" s="57">
+      <c r="H44" s="57">
         <v>0.75</v>
       </c>
-      <c r="H44" s="57">
-        <v>0</v>
-      </c>
-      <c r="I44" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J44" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K44" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L44" s="9">
+      <c r="I44" s="57">
+        <v>0</v>
+      </c>
+      <c r="J44" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K44" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L44" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M44" s="9">
         <v>21</v>
       </c>
-      <c r="M44" s="57">
+      <c r="N44" s="57">
         <f t="shared" si="2"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="N44" s="110">
+      <c r="O44" s="104">
         <v>3</v>
       </c>
-      <c r="O44" s="15"/>
-    </row>
-    <row r="45" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
-        <v>232</v>
+      <c r="P44" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="111">
+        <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="D45" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D45" s="82">
-        <v>1</v>
-      </c>
-      <c r="E45" s="56">
+      <c r="F45" s="56">
         <v>1.33</v>
       </c>
-      <c r="F45" s="56">
+      <c r="G45" s="56">
         <v>0.4</v>
       </c>
-      <c r="G45" s="57">
-        <v>1</v>
-      </c>
       <c r="H45" s="57">
-        <v>0</v>
-      </c>
-      <c r="I45" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J45" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K45" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L45" s="52">
+        <v>1</v>
+      </c>
+      <c r="I45" s="57">
+        <v>0</v>
+      </c>
+      <c r="J45" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K45" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L45" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M45" s="52">
         <f>10*30/7</f>
         <v>42.857142857142854</v>
       </c>
-      <c r="M45" s="57">
+      <c r="N45" s="57">
         <f t="shared" si="2"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="N45" s="110">
+      <c r="O45" s="104">
         <v>4</v>
       </c>
-      <c r="O45" s="15"/>
-    </row>
-    <row r="46" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
-        <v>233</v>
+      <c r="P45" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="111">
+        <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="D46" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D46" s="83">
-        <v>1</v>
-      </c>
-      <c r="E46" s="54">
+      <c r="F46" s="54">
         <v>0.42</v>
       </c>
-      <c r="F46" s="54">
+      <c r="G46" s="54">
         <v>0.16</v>
       </c>
-      <c r="G46" s="55">
+      <c r="H46" s="55">
         <v>0.1</v>
       </c>
-      <c r="H46" s="55">
-        <v>1</v>
-      </c>
-      <c r="I46" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="J46" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="K46" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="L46" s="7">
+      <c r="I46" s="55">
+        <v>1</v>
+      </c>
+      <c r="J46" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="K46" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L46" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M46" s="7">
         <v>5</v>
       </c>
-      <c r="M46" s="55">
+      <c r="N46" s="55">
         <f t="shared" si="2"/>
         <v>0.1823870495735308</v>
       </c>
-      <c r="N46" s="109">
+      <c r="O46" s="103">
         <v>0.3</v>
       </c>
-      <c r="O46" s="14"/>
-    </row>
-    <row r="47" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>233</v>
+      <c r="P46" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="111">
+        <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="D47" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E47" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D47" s="82">
-        <v>1</v>
-      </c>
-      <c r="E47" s="56">
+      <c r="F47" s="56">
         <v>0.57000000000000006</v>
       </c>
-      <c r="F47" s="56">
+      <c r="G47" s="56">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G47" s="57">
+      <c r="H47" s="57">
         <v>0.3</v>
       </c>
-      <c r="H47" s="57">
-        <v>0</v>
-      </c>
-      <c r="I47" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J47" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K47" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L47" s="9">
+      <c r="I47" s="57">
+        <v>0</v>
+      </c>
+      <c r="J47" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K47" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L47" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M47" s="9">
         <v>10</v>
       </c>
-      <c r="M47" s="57">
+      <c r="N47" s="57">
         <f t="shared" si="2"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="N47" s="110">
+      <c r="O47" s="104">
         <v>2</v>
       </c>
-      <c r="O47" s="15"/>
-    </row>
-    <row r="48" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>233</v>
+      <c r="P47" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="111">
+        <v>47</v>
       </c>
       <c r="B48" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="D48" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D48" s="82">
-        <v>1</v>
-      </c>
-      <c r="E48" s="56">
+      <c r="F48" s="56">
         <v>0.78</v>
       </c>
-      <c r="F48" s="56">
+      <c r="G48" s="56">
         <v>0.35</v>
       </c>
-      <c r="G48" s="57">
+      <c r="H48" s="57">
         <v>0.75</v>
       </c>
-      <c r="H48" s="57">
-        <v>0</v>
-      </c>
-      <c r="I48" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J48" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K48" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L48" s="9">
+      <c r="I48" s="57">
+        <v>0</v>
+      </c>
+      <c r="J48" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K48" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L48" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M48" s="9">
         <v>21</v>
       </c>
-      <c r="M48" s="57">
+      <c r="N48" s="57">
         <f t="shared" si="2"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="N48" s="110">
+      <c r="O48" s="104">
         <v>3</v>
       </c>
-      <c r="O48" s="15"/>
-    </row>
-    <row r="49" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>233</v>
+      <c r="P48" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="111">
+        <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="D49" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E49" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D49" s="82">
-        <v>1</v>
-      </c>
-      <c r="E49" s="56">
+      <c r="F49" s="56">
         <v>1.33</v>
       </c>
-      <c r="F49" s="56">
+      <c r="G49" s="56">
         <v>0.4</v>
       </c>
-      <c r="G49" s="57">
-        <v>1</v>
-      </c>
       <c r="H49" s="57">
-        <v>0</v>
-      </c>
-      <c r="I49" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J49" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K49" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L49" s="52">
+        <v>1</v>
+      </c>
+      <c r="I49" s="57">
+        <v>0</v>
+      </c>
+      <c r="J49" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K49" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L49" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M49" s="52">
         <f>10*30/7</f>
         <v>42.857142857142854</v>
       </c>
-      <c r="M49" s="57">
+      <c r="N49" s="57">
         <f t="shared" si="2"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="N49" s="110">
+      <c r="O49" s="104">
         <v>4</v>
       </c>
-      <c r="O49" s="15"/>
-    </row>
-    <row r="50" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+      <c r="P49" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="111">
+        <v>49</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="D50" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D50" s="83">
-        <v>1</v>
-      </c>
-      <c r="E50" s="54">
+      <c r="F50" s="54">
         <v>0.42</v>
       </c>
-      <c r="F50" s="54">
+      <c r="G50" s="54">
         <v>0.16</v>
       </c>
-      <c r="G50" s="55">
+      <c r="H50" s="55">
         <v>0.1</v>
       </c>
-      <c r="H50" s="55">
-        <v>1</v>
-      </c>
-      <c r="I50" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="J50" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="K50" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="L50" s="7">
+      <c r="I50" s="55">
+        <v>1</v>
+      </c>
+      <c r="J50" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="K50" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L50" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M50" s="7">
         <v>5</v>
       </c>
-      <c r="M50" s="55">
+      <c r="N50" s="55">
         <f t="shared" si="2"/>
         <v>0.1823870495735308</v>
       </c>
-      <c r="N50" s="109">
+      <c r="O50" s="103">
         <v>0.3</v>
       </c>
-      <c r="O50" s="14"/>
-    </row>
-    <row r="51" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="P50" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="111">
+        <v>50</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="D51" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D51" s="82">
-        <v>1</v>
-      </c>
-      <c r="E51" s="56">
+      <c r="F51" s="56">
         <v>0.57000000000000006</v>
       </c>
-      <c r="F51" s="56">
+      <c r="G51" s="56">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G51" s="57">
+      <c r="H51" s="57">
         <v>0.3</v>
       </c>
-      <c r="H51" s="57">
-        <v>0</v>
-      </c>
-      <c r="I51" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J51" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K51" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L51" s="9">
+      <c r="I51" s="57">
+        <v>0</v>
+      </c>
+      <c r="J51" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K51" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L51" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M51" s="9">
         <v>10</v>
       </c>
-      <c r="M51" s="57">
+      <c r="N51" s="57">
         <f t="shared" si="2"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="N51" s="110">
+      <c r="O51" s="104">
         <v>2</v>
       </c>
-      <c r="O51" s="15"/>
-    </row>
-    <row r="52" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+      <c r="P51" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="111">
+        <v>51</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="D52" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D52" s="82">
-        <v>1</v>
-      </c>
-      <c r="E52" s="56">
+      <c r="F52" s="56">
         <v>0.78</v>
       </c>
-      <c r="F52" s="56">
+      <c r="G52" s="56">
         <v>0.35</v>
       </c>
-      <c r="G52" s="57">
+      <c r="H52" s="57">
         <v>0.75</v>
       </c>
-      <c r="H52" s="57">
-        <v>0</v>
-      </c>
-      <c r="I52" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J52" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K52" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L52" s="9">
+      <c r="I52" s="57">
+        <v>0</v>
+      </c>
+      <c r="J52" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K52" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L52" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M52" s="9">
         <v>21</v>
       </c>
-      <c r="M52" s="57">
+      <c r="N52" s="57">
         <f t="shared" si="2"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="N52" s="110">
+      <c r="O52" s="104">
         <v>3</v>
       </c>
-      <c r="O52" s="15"/>
-    </row>
-    <row r="53" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
+      <c r="P52" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="111">
+        <v>52</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="D53" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D53" s="82">
-        <v>1</v>
-      </c>
-      <c r="E53" s="56">
+      <c r="F53" s="56">
         <v>1.33</v>
       </c>
-      <c r="F53" s="56">
+      <c r="G53" s="56">
         <v>0.4</v>
       </c>
-      <c r="G53" s="57">
-        <v>1</v>
-      </c>
       <c r="H53" s="57">
-        <v>0</v>
-      </c>
-      <c r="I53" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J53" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K53" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L53" s="52">
+        <v>1</v>
+      </c>
+      <c r="I53" s="57">
+        <v>0</v>
+      </c>
+      <c r="J53" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K53" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L53" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M53" s="52">
         <f>10*30/7</f>
         <v>42.857142857142854</v>
       </c>
-      <c r="M53" s="57">
+      <c r="N53" s="57">
         <f t="shared" si="2"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="N53" s="110">
+      <c r="O53" s="104">
         <v>4</v>
       </c>
-      <c r="O53" s="15"/>
-    </row>
-    <row r="54" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
-        <v>234</v>
+      <c r="P53" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="111">
+        <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="D54" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E54" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D54" s="83">
-        <v>1</v>
-      </c>
-      <c r="E54" s="54">
+      <c r="F54" s="54">
         <v>0.42</v>
       </c>
-      <c r="F54" s="54">
+      <c r="G54" s="54">
         <v>0.16</v>
       </c>
-      <c r="G54" s="55">
+      <c r="H54" s="55">
         <v>0.1</v>
       </c>
-      <c r="H54" s="55">
-        <v>1</v>
-      </c>
-      <c r="I54" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="J54" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="K54" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="L54" s="7">
+      <c r="I54" s="55">
+        <v>1</v>
+      </c>
+      <c r="J54" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="K54" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L54" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M54" s="7">
         <v>5</v>
       </c>
-      <c r="M54" s="55">
+      <c r="N54" s="55">
         <f t="shared" si="2"/>
         <v>0.1823870495735308</v>
       </c>
-      <c r="N54" s="109">
+      <c r="O54" s="103">
         <v>0.3</v>
       </c>
-      <c r="O54" s="14"/>
-    </row>
-    <row r="55" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
-        <v>234</v>
+      <c r="P54" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="111">
+        <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="D55" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E55" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D55" s="82">
-        <v>1</v>
-      </c>
-      <c r="E55" s="56">
+      <c r="F55" s="56">
         <v>0.57000000000000006</v>
       </c>
-      <c r="F55" s="56">
+      <c r="G55" s="56">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G55" s="57">
+      <c r="H55" s="57">
         <v>0.3</v>
       </c>
-      <c r="H55" s="57">
-        <v>0</v>
-      </c>
-      <c r="I55" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J55" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K55" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L55" s="9">
+      <c r="I55" s="57">
+        <v>0</v>
+      </c>
+      <c r="J55" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K55" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L55" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M55" s="9">
         <v>10</v>
       </c>
-      <c r="M55" s="57">
+      <c r="N55" s="57">
         <f t="shared" si="2"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="N55" s="110">
+      <c r="O55" s="104">
         <v>2</v>
       </c>
-      <c r="O55" s="15"/>
-    </row>
-    <row r="56" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>234</v>
+      <c r="P55" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="111">
+        <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="D56" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D56" s="82">
-        <v>1</v>
-      </c>
-      <c r="E56" s="56">
+      <c r="F56" s="56">
         <v>0.78</v>
       </c>
-      <c r="F56" s="56">
+      <c r="G56" s="56">
         <v>0.35</v>
       </c>
-      <c r="G56" s="57">
+      <c r="H56" s="57">
         <v>0.75</v>
       </c>
-      <c r="H56" s="57">
-        <v>0</v>
-      </c>
-      <c r="I56" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J56" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K56" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L56" s="9">
+      <c r="I56" s="57">
+        <v>0</v>
+      </c>
+      <c r="J56" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K56" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L56" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M56" s="9">
         <v>21</v>
       </c>
-      <c r="M56" s="57">
+      <c r="N56" s="57">
         <f t="shared" si="2"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="N56" s="110">
+      <c r="O56" s="104">
         <v>3</v>
       </c>
-      <c r="O56" s="15"/>
-    </row>
-    <row r="57" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
-        <v>234</v>
+      <c r="P56" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="111">
+        <v>56</v>
       </c>
       <c r="B57" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C57" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="D57" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E57" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="D57" s="84">
-        <v>1</v>
-      </c>
-      <c r="E57" s="56">
+      <c r="F57" s="56">
         <v>1.33</v>
       </c>
-      <c r="F57" s="56">
+      <c r="G57" s="56">
         <v>0.4</v>
       </c>
-      <c r="G57" s="57">
-        <v>1</v>
-      </c>
       <c r="H57" s="57">
-        <v>0</v>
-      </c>
-      <c r="I57" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J57" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K57" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L57" s="52">
+        <v>1</v>
+      </c>
+      <c r="I57" s="57">
+        <v>0</v>
+      </c>
+      <c r="J57" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K57" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L57" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M57" s="52">
         <f>10*30/7</f>
         <v>42.857142857142854</v>
       </c>
-      <c r="M57" s="57">
+      <c r="N57" s="57">
         <f t="shared" si="2"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="N57" s="110">
+      <c r="O57" s="104">
         <v>4</v>
       </c>
-      <c r="O57" s="16"/>
-    </row>
-    <row r="58" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
-        <v>235</v>
+      <c r="P57" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="111">
+        <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="D58" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E58" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D58" s="82">
-        <v>1</v>
-      </c>
-      <c r="E58" s="54">
+      <c r="F58" s="54">
         <v>0.42</v>
       </c>
-      <c r="F58" s="54">
+      <c r="G58" s="54">
         <v>0.16</v>
       </c>
-      <c r="G58" s="55">
+      <c r="H58" s="55">
         <v>0.1</v>
       </c>
-      <c r="H58" s="55">
-        <v>1</v>
-      </c>
-      <c r="I58" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="J58" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="K58" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="L58" s="7">
+      <c r="I58" s="55">
+        <v>1</v>
+      </c>
+      <c r="J58" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="K58" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L58" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M58" s="7">
         <v>5</v>
       </c>
-      <c r="M58" s="55">
+      <c r="N58" s="55">
         <f t="shared" si="2"/>
         <v>0.1823870495735308</v>
       </c>
-      <c r="N58" s="109">
+      <c r="O58" s="103">
         <v>0.3</v>
       </c>
-      <c r="O58" s="15"/>
-    </row>
-    <row r="59" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
-        <v>235</v>
+      <c r="P58" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="111">
+        <v>58</v>
       </c>
       <c r="B59" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="D59" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E59" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D59" s="82">
-        <v>1</v>
-      </c>
-      <c r="E59" s="56">
+      <c r="F59" s="56">
         <v>0.57000000000000006</v>
       </c>
-      <c r="F59" s="56">
+      <c r="G59" s="56">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G59" s="57">
+      <c r="H59" s="57">
         <v>0.3</v>
       </c>
-      <c r="H59" s="57">
-        <v>0</v>
-      </c>
-      <c r="I59" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J59" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K59" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L59" s="9">
+      <c r="I59" s="57">
+        <v>0</v>
+      </c>
+      <c r="J59" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K59" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L59" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M59" s="9">
         <v>10</v>
       </c>
-      <c r="M59" s="57">
+      <c r="N59" s="57">
         <f t="shared" si="2"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="N59" s="110">
+      <c r="O59" s="104">
         <v>2</v>
       </c>
-      <c r="O59" s="15"/>
-    </row>
-    <row r="60" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
-        <v>235</v>
+      <c r="P59" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="111">
+        <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C60" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="D60" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E60" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D60" s="82">
-        <v>1</v>
-      </c>
-      <c r="E60" s="56">
+      <c r="F60" s="56">
         <v>0.78</v>
       </c>
-      <c r="F60" s="56">
+      <c r="G60" s="56">
         <v>0.35</v>
       </c>
-      <c r="G60" s="57">
+      <c r="H60" s="57">
         <v>0.75</v>
       </c>
-      <c r="H60" s="57">
-        <v>0</v>
-      </c>
-      <c r="I60" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J60" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K60" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L60" s="9">
+      <c r="I60" s="57">
+        <v>0</v>
+      </c>
+      <c r="J60" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K60" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L60" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M60" s="9">
         <v>21</v>
       </c>
-      <c r="M60" s="57">
+      <c r="N60" s="57">
         <f t="shared" si="2"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="N60" s="110">
+      <c r="O60" s="104">
         <v>3</v>
       </c>
-      <c r="O60" s="15"/>
-    </row>
-    <row r="61" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
-        <v>235</v>
+      <c r="P60" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="111">
+        <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C61" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="D61" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E61" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D61" s="82">
-        <v>1</v>
-      </c>
-      <c r="E61" s="56">
+      <c r="F61" s="56">
         <v>1.33</v>
       </c>
-      <c r="F61" s="56">
+      <c r="G61" s="56">
         <v>0.4</v>
       </c>
-      <c r="G61" s="57">
-        <v>1</v>
-      </c>
       <c r="H61" s="57">
-        <v>0</v>
-      </c>
-      <c r="I61" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J61" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K61" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L61" s="52">
+        <v>1</v>
+      </c>
+      <c r="I61" s="57">
+        <v>0</v>
+      </c>
+      <c r="J61" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K61" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L61" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M61" s="52">
         <f>10*30/7</f>
         <v>42.857142857142854</v>
       </c>
-      <c r="M61" s="57">
+      <c r="N61" s="57">
         <f t="shared" si="2"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="N61" s="110">
+      <c r="O61" s="104">
         <v>4</v>
       </c>
-      <c r="O61" s="15"/>
-    </row>
-    <row r="62" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
-        <v>236</v>
+      <c r="P61" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="111">
+        <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="D62" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E62" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D62" s="83">
-        <v>1</v>
-      </c>
-      <c r="E62" s="54">
+      <c r="F62" s="54">
         <v>0.42</v>
       </c>
-      <c r="F62" s="54">
+      <c r="G62" s="54">
         <v>0.16</v>
       </c>
-      <c r="G62" s="55">
+      <c r="H62" s="55">
         <v>0.1</v>
       </c>
-      <c r="H62" s="55">
-        <v>1</v>
-      </c>
-      <c r="I62" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="J62" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="K62" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="L62" s="7">
+      <c r="I62" s="55">
+        <v>1</v>
+      </c>
+      <c r="J62" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="K62" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L62" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M62" s="7">
         <v>5</v>
       </c>
-      <c r="M62" s="55">
+      <c r="N62" s="55">
         <f t="shared" si="2"/>
         <v>0.1823870495735308</v>
       </c>
-      <c r="N62" s="109">
+      <c r="O62" s="103">
         <v>0.3</v>
       </c>
-      <c r="O62" s="14"/>
-    </row>
-    <row r="63" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
-        <v>236</v>
+      <c r="P62" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="111">
+        <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="D63" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E63" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D63" s="82">
-        <v>1</v>
-      </c>
-      <c r="E63" s="56">
+      <c r="F63" s="56">
         <v>0.57000000000000006</v>
       </c>
-      <c r="F63" s="56">
+      <c r="G63" s="56">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G63" s="57">
+      <c r="H63" s="57">
         <v>0.3</v>
       </c>
-      <c r="H63" s="57">
-        <v>0</v>
-      </c>
-      <c r="I63" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J63" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K63" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L63" s="9">
+      <c r="I63" s="57">
+        <v>0</v>
+      </c>
+      <c r="J63" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K63" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L63" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M63" s="9">
         <v>10</v>
       </c>
-      <c r="M63" s="57">
+      <c r="N63" s="57">
         <f t="shared" si="2"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="N63" s="110">
+      <c r="O63" s="104">
         <v>2</v>
       </c>
-      <c r="O63" s="15"/>
-    </row>
-    <row r="64" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
-        <v>236</v>
+      <c r="P63" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="111">
+        <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C64" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="D64" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E64" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D64" s="82">
-        <v>1</v>
-      </c>
-      <c r="E64" s="56">
+      <c r="F64" s="56">
         <v>0.78</v>
       </c>
-      <c r="F64" s="56">
+      <c r="G64" s="56">
         <v>0.35</v>
       </c>
-      <c r="G64" s="57">
+      <c r="H64" s="57">
         <v>0.75</v>
       </c>
-      <c r="H64" s="57">
-        <v>0</v>
-      </c>
-      <c r="I64" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J64" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K64" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L64" s="9">
+      <c r="I64" s="57">
+        <v>0</v>
+      </c>
+      <c r="J64" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K64" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L64" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M64" s="9">
         <v>21</v>
       </c>
-      <c r="M64" s="57">
+      <c r="N64" s="57">
         <f t="shared" si="2"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="N64" s="110">
+      <c r="O64" s="104">
         <v>3</v>
       </c>
-      <c r="O64" s="15"/>
-    </row>
-    <row r="65" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
-        <v>236</v>
+      <c r="P64" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="111">
+        <v>64</v>
       </c>
       <c r="B65" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C65" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="D65" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E65" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="D65" s="84">
-        <v>1</v>
-      </c>
-      <c r="E65" s="56">
+      <c r="F65" s="56">
         <v>1.33</v>
       </c>
-      <c r="F65" s="56">
+      <c r="G65" s="56">
         <v>0.4</v>
       </c>
-      <c r="G65" s="57">
-        <v>1</v>
-      </c>
       <c r="H65" s="57">
-        <v>0</v>
-      </c>
-      <c r="I65" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J65" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K65" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L65" s="52">
+        <v>1</v>
+      </c>
+      <c r="I65" s="57">
+        <v>0</v>
+      </c>
+      <c r="J65" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K65" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L65" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M65" s="52">
         <f>10*30/7</f>
         <v>42.857142857142854</v>
       </c>
-      <c r="M65" s="57">
+      <c r="N65" s="57">
         <f t="shared" si="2"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="N65" s="110">
+      <c r="O65" s="104">
         <v>4</v>
       </c>
-      <c r="O65" s="16"/>
-    </row>
-    <row r="66" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
+      <c r="P65" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="111">
+        <v>65</v>
+      </c>
+      <c r="B66" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="C66" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="D66" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E66" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D66" s="83">
-        <v>1</v>
-      </c>
-      <c r="E66" s="54">
+      <c r="F66" s="54">
         <v>0.11</v>
       </c>
-      <c r="F66" s="54">
+      <c r="G66" s="54">
         <v>0.7</v>
       </c>
-      <c r="G66" s="55">
+      <c r="H66" s="55">
         <v>0.3</v>
       </c>
-      <c r="H66" s="55">
-        <v>1</v>
-      </c>
-      <c r="I66" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="J66" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="K66" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="L66" s="7">
-        <v>1</v>
-      </c>
-      <c r="M66" s="55">
-        <f t="shared" ref="M66" si="3">N66/NORMINV(0.95,0,1)</f>
+      <c r="I66" s="55">
+        <v>1</v>
+      </c>
+      <c r="J66" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="K66" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L66" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M66" s="7">
+        <v>1</v>
+      </c>
+      <c r="N66" s="55">
+        <f t="shared" ref="N66" si="3">O66/NORMINV(0.95,0,1)</f>
         <v>0.30397841595588471</v>
       </c>
-      <c r="N66" s="109">
+      <c r="O66" s="103">
         <v>0.5</v>
       </c>
-      <c r="O66" s="14" t="s">
+      <c r="P66" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
+    <row r="67" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="111">
+        <v>66</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="D67" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E67" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D67" s="82">
-        <v>1</v>
-      </c>
-      <c r="E67" s="56">
+      <c r="F67" s="56">
         <v>0.15</v>
       </c>
-      <c r="F67" s="56">
+      <c r="G67" s="56">
         <v>0.75</v>
-      </c>
-      <c r="G67" s="57">
-        <v>0.6</v>
       </c>
       <c r="H67" s="57">
         <v>0.6</v>
       </c>
-      <c r="I67" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J67" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K67" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L67" s="9">
+      <c r="I67" s="57">
+        <v>0.6</v>
+      </c>
+      <c r="J67" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K67" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L67" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M67" s="9">
         <v>3</v>
       </c>
-      <c r="M67" s="57">
-        <f t="shared" ref="M67:M77" si="4">N67/NORMINV(0.95,0,1)</f>
+      <c r="N67" s="57">
+        <f t="shared" ref="N67:N77" si="4">O67/NORMINV(0.95,0,1)</f>
         <v>0.91193524786765412</v>
       </c>
-      <c r="N67" s="110">
+      <c r="O67" s="104">
         <v>1.5</v>
       </c>
-      <c r="O67" s="15" t="s">
+      <c r="P67" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
+    <row r="68" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="111">
+        <v>67</v>
+      </c>
+      <c r="B68" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="D68" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E68" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D68" s="82">
-        <v>1</v>
-      </c>
-      <c r="E68" s="56">
+      <c r="F68" s="56">
         <v>0.2</v>
       </c>
-      <c r="F68" s="56">
+      <c r="G68" s="56">
         <v>0.75</v>
       </c>
-      <c r="G68" s="57">
+      <c r="H68" s="57">
         <v>0.8</v>
       </c>
-      <c r="H68" s="57">
+      <c r="I68" s="57">
         <v>0.2</v>
       </c>
-      <c r="I68" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J68" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K68" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L68" s="9">
+      <c r="J68" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K68" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L68" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M68" s="9">
         <v>7</v>
       </c>
-      <c r="M68" s="57">
+      <c r="N68" s="57">
         <f t="shared" si="4"/>
         <v>2.1278489116911929</v>
       </c>
-      <c r="N68" s="110">
+      <c r="O68" s="104">
         <v>3.5</v>
       </c>
-      <c r="O68" s="15" t="s">
+      <c r="P68" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+    <row r="69" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="111">
+        <v>68</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="D69" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E69" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D69" s="82">
-        <v>1</v>
-      </c>
-      <c r="E69" s="56">
+      <c r="F69" s="56">
         <v>0.47</v>
       </c>
-      <c r="F69" s="56">
+      <c r="G69" s="56">
         <v>0.7</v>
       </c>
-      <c r="G69" s="57">
-        <v>1</v>
-      </c>
       <c r="H69" s="57">
-        <v>0</v>
-      </c>
-      <c r="I69" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="J69" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K69" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="L69" s="9">
+        <v>1</v>
+      </c>
+      <c r="I69" s="57">
+        <v>0</v>
+      </c>
+      <c r="J69" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K69" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L69" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M69" s="9">
         <v>30</v>
       </c>
-      <c r="M69" s="57">
+      <c r="N69" s="57">
         <f t="shared" si="4"/>
         <v>9.1193524786765412</v>
       </c>
-      <c r="N69" s="110">
+      <c r="O69" s="104">
         <v>15</v>
       </c>
-      <c r="O69" s="15" t="s">
+      <c r="P69" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="90" t="s">
+    <row r="70" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="111">
+        <v>69</v>
+      </c>
+      <c r="B70" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="B70" s="90" t="s">
+      <c r="C70" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="C70" s="90" t="s">
+      <c r="D70" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E70" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="D70" s="91">
-        <v>1</v>
-      </c>
-      <c r="E70" s="92">
+      <c r="F70" s="88">
         <v>10</v>
       </c>
-      <c r="F70" s="92">
+      <c r="G70" s="88">
         <v>0.01</v>
       </c>
-      <c r="G70" s="93">
+      <c r="H70" s="89">
         <v>0.01</v>
       </c>
-      <c r="H70" s="93">
-        <v>1</v>
-      </c>
-      <c r="I70" s="93" t="s">
-        <v>205</v>
-      </c>
-      <c r="J70" s="93" t="s">
-        <v>205</v>
-      </c>
-      <c r="K70" s="93" t="s">
-        <v>205</v>
-      </c>
-      <c r="L70" s="94">
-        <v>1</v>
-      </c>
-      <c r="M70" s="93">
+      <c r="I70" s="89">
+        <v>1</v>
+      </c>
+      <c r="J70" s="89" t="s">
+        <v>202</v>
+      </c>
+      <c r="K70" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L70" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M70" s="90">
+        <v>1</v>
+      </c>
+      <c r="N70" s="89">
         <f t="shared" si="4"/>
         <v>6.0795683191176939E-2</v>
       </c>
-      <c r="N70" s="111">
+      <c r="O70" s="105">
         <v>0.1</v>
       </c>
-      <c r="O70" s="14"/>
-    </row>
-    <row r="71" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="95" t="s">
+      <c r="P70" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="111">
+        <v>70</v>
+      </c>
+      <c r="B71" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B71" s="95" t="s">
+      <c r="C71" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="C71" s="95" t="s">
+      <c r="D71" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E71" s="91" t="s">
         <v>197</v>
       </c>
-      <c r="D71" s="96">
-        <v>1</v>
-      </c>
-      <c r="E71" s="97">
+      <c r="F71" s="92">
         <v>10</v>
       </c>
-      <c r="F71" s="97">
+      <c r="G71" s="92">
         <v>0.01</v>
       </c>
-      <c r="G71" s="98">
+      <c r="H71" s="93">
         <v>0.01</v>
       </c>
-      <c r="H71" s="98">
-        <v>1</v>
-      </c>
-      <c r="I71" s="98" t="s">
-        <v>205</v>
-      </c>
-      <c r="J71" s="98" t="s">
-        <v>205</v>
-      </c>
-      <c r="K71" s="98" t="s">
-        <v>205</v>
-      </c>
-      <c r="L71" s="99">
-        <v>1</v>
-      </c>
-      <c r="M71" s="98">
+      <c r="I71" s="93">
+        <v>1</v>
+      </c>
+      <c r="J71" s="93" t="s">
+        <v>202</v>
+      </c>
+      <c r="K71" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L71" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M71" s="94">
+        <v>1</v>
+      </c>
+      <c r="N71" s="93">
         <f t="shared" si="4"/>
         <v>6.0795683191176939E-2</v>
       </c>
-      <c r="N71" s="112">
+      <c r="O71" s="106">
         <v>0.1</v>
       </c>
-      <c r="O71" s="15"/>
-    </row>
-    <row r="72" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="95" t="s">
+      <c r="P71" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="111">
+        <v>71</v>
+      </c>
+      <c r="B72" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B72" s="95" t="s">
+      <c r="C72" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="C72" s="95" t="s">
+      <c r="D72" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E72" s="91" t="s">
         <v>197</v>
       </c>
-      <c r="D72" s="96">
-        <v>1</v>
-      </c>
-      <c r="E72" s="97">
+      <c r="F72" s="92">
         <v>10</v>
       </c>
-      <c r="F72" s="97">
+      <c r="G72" s="92">
         <v>0.01</v>
       </c>
-      <c r="G72" s="98">
+      <c r="H72" s="93">
         <v>0.01</v>
       </c>
-      <c r="H72" s="98">
-        <v>1</v>
-      </c>
-      <c r="I72" s="98" t="s">
-        <v>205</v>
-      </c>
-      <c r="J72" s="98" t="s">
-        <v>205</v>
-      </c>
-      <c r="K72" s="98" t="s">
-        <v>205</v>
-      </c>
-      <c r="L72" s="99">
-        <v>1</v>
-      </c>
-      <c r="M72" s="98">
+      <c r="I72" s="93">
+        <v>1</v>
+      </c>
+      <c r="J72" s="93" t="s">
+        <v>202</v>
+      </c>
+      <c r="K72" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L72" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M72" s="94">
+        <v>1</v>
+      </c>
+      <c r="N72" s="93">
         <f t="shared" si="4"/>
         <v>6.0795683191176939E-2</v>
       </c>
-      <c r="N72" s="112">
+      <c r="O72" s="106">
         <v>0.1</v>
       </c>
-      <c r="O72" s="15"/>
-    </row>
-    <row r="73" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="100" t="s">
+      <c r="P72" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="111">
+        <v>72</v>
+      </c>
+      <c r="B73" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="B73" s="100" t="s">
+      <c r="C73" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="C73" s="100" t="s">
+      <c r="D73" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E73" s="95" t="s">
         <v>197</v>
       </c>
-      <c r="D73" s="101">
-        <v>1</v>
-      </c>
-      <c r="E73" s="102">
+      <c r="F73" s="96">
         <v>10</v>
       </c>
-      <c r="F73" s="102">
+      <c r="G73" s="96">
         <v>0.01</v>
       </c>
-      <c r="G73" s="103">
+      <c r="H73" s="97">
         <v>0.01</v>
       </c>
-      <c r="H73" s="103">
-        <v>1</v>
-      </c>
-      <c r="I73" s="103" t="s">
-        <v>205</v>
-      </c>
-      <c r="J73" s="103" t="s">
-        <v>205</v>
-      </c>
-      <c r="K73" s="103" t="s">
-        <v>205</v>
-      </c>
-      <c r="L73" s="104">
-        <v>1</v>
-      </c>
-      <c r="M73" s="103">
+      <c r="I73" s="97">
+        <v>1</v>
+      </c>
+      <c r="J73" s="97" t="s">
+        <v>202</v>
+      </c>
+      <c r="K73" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L73" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M73" s="98">
+        <v>1</v>
+      </c>
+      <c r="N73" s="97">
         <f t="shared" si="4"/>
         <v>6.0795683191176939E-2</v>
       </c>
-      <c r="N73" s="113">
+      <c r="O73" s="107">
         <v>0.1</v>
       </c>
-      <c r="O73" s="16"/>
-    </row>
-    <row r="74" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="90" t="s">
-        <v>209</v>
-      </c>
-      <c r="B74" s="90" t="s">
+      <c r="P73" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="111">
+        <v>73</v>
+      </c>
+      <c r="B74" s="87" t="s">
+        <v>206</v>
+      </c>
+      <c r="C74" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="C74" s="90" t="s">
+      <c r="D74" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E74" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="D74" s="91">
-        <v>1</v>
-      </c>
-      <c r="E74" s="92">
+      <c r="F74" s="88">
         <v>10</v>
       </c>
-      <c r="F74" s="92">
+      <c r="G74" s="88">
         <v>0.01</v>
       </c>
-      <c r="G74" s="93">
+      <c r="H74" s="89">
         <v>0.01</v>
       </c>
-      <c r="H74" s="93">
-        <v>1</v>
-      </c>
-      <c r="I74" s="93" t="s">
-        <v>205</v>
-      </c>
-      <c r="J74" s="93" t="s">
-        <v>205</v>
-      </c>
-      <c r="K74" s="93" t="s">
-        <v>205</v>
-      </c>
-      <c r="L74" s="94">
-        <v>1</v>
-      </c>
-      <c r="M74" s="93">
+      <c r="I74" s="89">
+        <v>1</v>
+      </c>
+      <c r="J74" s="89" t="s">
+        <v>202</v>
+      </c>
+      <c r="K74" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L74" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M74" s="90">
+        <v>1</v>
+      </c>
+      <c r="N74" s="89">
         <f t="shared" si="4"/>
         <v>6.0795683191176939E-2</v>
       </c>
-      <c r="N74" s="111">
+      <c r="O74" s="105">
         <v>0.1</v>
       </c>
-      <c r="O74" s="14"/>
-    </row>
-    <row r="75" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="95" t="s">
-        <v>209</v>
-      </c>
-      <c r="B75" s="95" t="s">
+      <c r="P74" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="111">
+        <v>74</v>
+      </c>
+      <c r="B75" s="91" t="s">
+        <v>206</v>
+      </c>
+      <c r="C75" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="C75" s="95" t="s">
+      <c r="D75" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E75" s="91" t="s">
         <v>197</v>
       </c>
-      <c r="D75" s="96">
-        <v>1</v>
-      </c>
-      <c r="E75" s="97">
+      <c r="F75" s="92">
         <v>10</v>
       </c>
-      <c r="F75" s="97">
+      <c r="G75" s="92">
         <v>0.01</v>
       </c>
-      <c r="G75" s="98">
+      <c r="H75" s="93">
         <v>0.01</v>
       </c>
-      <c r="H75" s="98">
-        <v>1</v>
-      </c>
-      <c r="I75" s="98" t="s">
-        <v>205</v>
-      </c>
-      <c r="J75" s="98" t="s">
-        <v>205</v>
-      </c>
-      <c r="K75" s="98" t="s">
-        <v>205</v>
-      </c>
-      <c r="L75" s="99">
-        <v>1</v>
-      </c>
-      <c r="M75" s="98">
+      <c r="I75" s="93">
+        <v>1</v>
+      </c>
+      <c r="J75" s="93" t="s">
+        <v>202</v>
+      </c>
+      <c r="K75" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L75" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M75" s="94">
+        <v>1</v>
+      </c>
+      <c r="N75" s="93">
         <f t="shared" si="4"/>
         <v>6.0795683191176939E-2</v>
       </c>
-      <c r="N75" s="112">
+      <c r="O75" s="106">
         <v>0.1</v>
       </c>
-      <c r="O75" s="15"/>
-    </row>
-    <row r="76" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="95" t="s">
-        <v>209</v>
-      </c>
-      <c r="B76" s="95" t="s">
+      <c r="P75" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="111">
+        <v>75</v>
+      </c>
+      <c r="B76" s="91" t="s">
+        <v>206</v>
+      </c>
+      <c r="C76" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="C76" s="95" t="s">
+      <c r="D76" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E76" s="91" t="s">
         <v>197</v>
       </c>
-      <c r="D76" s="96">
-        <v>1</v>
-      </c>
-      <c r="E76" s="97">
+      <c r="F76" s="92">
         <v>10</v>
       </c>
-      <c r="F76" s="97">
+      <c r="G76" s="92">
         <v>0.01</v>
       </c>
-      <c r="G76" s="98">
+      <c r="H76" s="93">
         <v>0.01</v>
       </c>
-      <c r="H76" s="98">
-        <v>1</v>
-      </c>
-      <c r="I76" s="98" t="s">
-        <v>205</v>
-      </c>
-      <c r="J76" s="98" t="s">
-        <v>205</v>
-      </c>
-      <c r="K76" s="98" t="s">
-        <v>205</v>
-      </c>
-      <c r="L76" s="99">
-        <v>1</v>
-      </c>
-      <c r="M76" s="98">
+      <c r="I76" s="93">
+        <v>1</v>
+      </c>
+      <c r="J76" s="93" t="s">
+        <v>202</v>
+      </c>
+      <c r="K76" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L76" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M76" s="94">
+        <v>1</v>
+      </c>
+      <c r="N76" s="93">
         <f t="shared" si="4"/>
         <v>6.0795683191176939E-2</v>
       </c>
-      <c r="N76" s="112">
+      <c r="O76" s="106">
         <v>0.1</v>
       </c>
-      <c r="O76" s="15"/>
-    </row>
-    <row r="77" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="100" t="s">
-        <v>209</v>
-      </c>
-      <c r="B77" s="100" t="s">
+      <c r="P76" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="111">
+        <v>76</v>
+      </c>
+      <c r="B77" s="95" t="s">
+        <v>206</v>
+      </c>
+      <c r="C77" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="C77" s="100" t="s">
+      <c r="D77" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E77" s="95" t="s">
         <v>197</v>
       </c>
-      <c r="D77" s="101">
-        <v>1</v>
-      </c>
-      <c r="E77" s="102">
+      <c r="F77" s="96">
         <v>10</v>
       </c>
-      <c r="F77" s="102">
+      <c r="G77" s="96">
         <v>0.01</v>
       </c>
-      <c r="G77" s="103">
+      <c r="H77" s="97">
         <v>0.01</v>
       </c>
-      <c r="H77" s="103">
-        <v>1</v>
-      </c>
-      <c r="I77" s="103" t="s">
-        <v>205</v>
-      </c>
-      <c r="J77" s="103" t="s">
-        <v>205</v>
-      </c>
-      <c r="K77" s="103" t="s">
-        <v>205</v>
-      </c>
-      <c r="L77" s="104">
-        <v>1</v>
-      </c>
-      <c r="M77" s="103">
+      <c r="I77" s="97">
+        <v>1</v>
+      </c>
+      <c r="J77" s="97" t="s">
+        <v>202</v>
+      </c>
+      <c r="K77" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L77" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M77" s="98">
+        <v>1</v>
+      </c>
+      <c r="N77" s="97">
         <f t="shared" si="4"/>
         <v>6.0795683191176939E-2</v>
       </c>
-      <c r="N77" s="113">
+      <c r="O77" s="107">
         <v>0.1</v>
       </c>
-      <c r="O77" s="16"/>
+      <c r="P77" s="14" t="s">
+        <v>270</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A5:O68">
-    <sortCondition ref="A133:A196"/>
+  <sortState ref="B5:P68">
     <sortCondition ref="B133:B196"/>
+    <sortCondition ref="C133:C196"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -10503,12 +10870,12 @@
         <v>19</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>59</v>
@@ -10519,7 +10886,7 @@
     </row>
     <row r="3" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>60</v>
@@ -10530,7 +10897,7 @@
     </row>
     <row r="4" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>61</v>
@@ -10541,7 +10908,7 @@
     </row>
     <row r="5" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>62</v>
@@ -10552,7 +10919,7 @@
     </row>
     <row r="6" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>59</v>
@@ -10563,7 +10930,7 @@
     </row>
     <row r="7" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>60</v>
@@ -10574,7 +10941,7 @@
     </row>
     <row r="8" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>61</v>
@@ -10585,7 +10952,7 @@
     </row>
     <row r="9" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>62</v>
@@ -10596,7 +10963,7 @@
     </row>
     <row r="10" spans="1:3" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>59</v>
@@ -10607,7 +10974,7 @@
     </row>
     <row r="11" spans="1:3" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>60</v>
@@ -10618,7 +10985,7 @@
     </row>
     <row r="12" spans="1:3" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>61</v>
@@ -10629,7 +10996,7 @@
     </row>
     <row r="13" spans="1:3" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>62</v>
@@ -10640,7 +11007,7 @@
     </row>
     <row r="14" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>59</v>
@@ -10651,7 +11018,7 @@
     </row>
     <row r="15" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>60</v>
@@ -10662,7 +11029,7 @@
     </row>
     <row r="16" spans="1:3" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>61</v>
@@ -10673,7 +11040,7 @@
     </row>
     <row r="17" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>62</v>
@@ -10684,7 +11051,7 @@
     </row>
     <row r="18" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>59</v>
@@ -10695,7 +11062,7 @@
     </row>
     <row r="19" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>60</v>
@@ -10706,7 +11073,7 @@
     </row>
     <row r="20" spans="1:3" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>61</v>
@@ -10717,7 +11084,7 @@
     </row>
     <row r="21" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>62</v>
@@ -10728,7 +11095,7 @@
     </row>
     <row r="22" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>59</v>
@@ -10739,7 +11106,7 @@
     </row>
     <row r="23" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>60</v>
@@ -10750,7 +11117,7 @@
     </row>
     <row r="24" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>61</v>
@@ -10761,7 +11128,7 @@
     </row>
     <row r="25" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>62</v>
@@ -10772,7 +11139,7 @@
     </row>
     <row r="26" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>59</v>
@@ -10783,7 +11150,7 @@
     </row>
     <row r="27" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>60</v>
@@ -10794,7 +11161,7 @@
     </row>
     <row r="28" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>61</v>
@@ -10805,7 +11172,7 @@
     </row>
     <row r="29" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>62</v>
@@ -10816,7 +11183,7 @@
     </row>
     <row r="30" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>59</v>
@@ -10827,7 +11194,7 @@
     </row>
     <row r="31" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>60</v>
@@ -10838,7 +11205,7 @@
     </row>
     <row r="32" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>61</v>
@@ -10849,7 +11216,7 @@
     </row>
     <row r="33" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>62</v>
@@ -10860,7 +11227,7 @@
     </row>
     <row r="34" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>59</v>
@@ -10871,7 +11238,7 @@
     </row>
     <row r="35" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>60</v>
@@ -10882,7 +11249,7 @@
     </row>
     <row r="36" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>61</v>
@@ -10893,7 +11260,7 @@
     </row>
     <row r="37" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>62</v>
@@ -10904,7 +11271,7 @@
     </row>
     <row r="38" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>59</v>
@@ -10915,7 +11282,7 @@
     </row>
     <row r="39" spans="1:3" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>60</v>
@@ -10926,7 +11293,7 @@
     </row>
     <row r="40" spans="1:3" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>61</v>
@@ -10937,7 +11304,7 @@
     </row>
     <row r="41" spans="1:3" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>62</v>
@@ -10948,7 +11315,7 @@
     </row>
     <row r="42" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>59</v>
@@ -10959,7 +11326,7 @@
     </row>
     <row r="43" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>60</v>
@@ -10970,7 +11337,7 @@
     </row>
     <row r="44" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>61</v>
@@ -10981,7 +11348,7 @@
     </row>
     <row r="45" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>62</v>
@@ -10992,7 +11359,7 @@
     </row>
     <row r="46" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>59</v>
@@ -11003,7 +11370,7 @@
     </row>
     <row r="47" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>60</v>
@@ -11014,7 +11381,7 @@
     </row>
     <row r="48" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>61</v>
@@ -11025,7 +11392,7 @@
     </row>
     <row r="49" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>62</v>
@@ -11080,7 +11447,7 @@
     </row>
     <row r="54" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>59</v>
@@ -11091,7 +11458,7 @@
     </row>
     <row r="55" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>60</v>
@@ -11102,7 +11469,7 @@
     </row>
     <row r="56" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>61</v>
@@ -11113,7 +11480,7 @@
     </row>
     <row r="57" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>62</v>
@@ -11124,7 +11491,7 @@
     </row>
     <row r="58" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>59</v>
@@ -11135,7 +11502,7 @@
     </row>
     <row r="59" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>60</v>
@@ -11146,7 +11513,7 @@
     </row>
     <row r="60" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>61</v>
@@ -11157,7 +11524,7 @@
     </row>
     <row r="61" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>62</v>
@@ -11168,7 +11535,7 @@
     </row>
     <row r="62" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>59</v>
@@ -11179,7 +11546,7 @@
     </row>
     <row r="63" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>60</v>
@@ -11190,7 +11557,7 @@
     </row>
     <row r="64" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>61</v>
@@ -11201,7 +11568,7 @@
     </row>
     <row r="65" spans="1:3" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>62</v>
@@ -11218,7 +11585,7 @@
         <v>59</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -11229,7 +11596,7 @@
         <v>60</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -11240,7 +11607,7 @@
         <v>61</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -11251,95 +11618,95 @@
         <v>62</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="90" t="s">
+      <c r="A70" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="B70" s="90" t="s">
+      <c r="B70" s="87" t="s">
         <v>59</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="95" t="s">
+      <c r="A71" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B71" s="95" t="s">
+      <c r="B71" s="91" t="s">
         <v>60</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="95" t="s">
+      <c r="A72" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B72" s="95" t="s">
+      <c r="B72" s="91" t="s">
         <v>61</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="100" t="s">
+      <c r="A73" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="B73" s="100" t="s">
+      <c r="B73" s="95" t="s">
         <v>62</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="90" t="s">
-        <v>209</v>
-      </c>
-      <c r="B74" s="90" t="s">
+      <c r="A74" s="87" t="s">
+        <v>206</v>
+      </c>
+      <c r="B74" s="87" t="s">
         <v>59</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="95" t="s">
-        <v>209</v>
-      </c>
-      <c r="B75" s="95" t="s">
+      <c r="A75" s="91" t="s">
+        <v>206</v>
+      </c>
+      <c r="B75" s="91" t="s">
         <v>60</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="95" t="s">
-        <v>209</v>
-      </c>
-      <c r="B76" s="95" t="s">
+      <c r="A76" s="91" t="s">
+        <v>206</v>
+      </c>
+      <c r="B76" s="91" t="s">
         <v>61</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="100" t="s">
-        <v>209</v>
-      </c>
-      <c r="B77" s="100" t="s">
+      <c r="A77" s="95" t="s">
+        <v>206</v>
+      </c>
+      <c r="B77" s="95" t="s">
         <v>62</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -11568,7 +11935,7 @@
         <v>76</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -11934,7 +12301,7 @@
         <v>88</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -12307,7 +12674,7 @@
         <v>161</v>
       </c>
       <c r="J33" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -13711,7 +14078,7 @@
         <v>72</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -13743,7 +14110,7 @@
         <v>73</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -13775,7 +14142,7 @@
         <v>74</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -13808,7 +14175,7 @@
         <v>75</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -13840,7 +14207,7 @@
         <v>76</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -14212,7 +14579,7 @@
         <v>88</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -14585,7 +14952,7 @@
         <v>161</v>
       </c>
       <c r="J33" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
